--- a/QC_QNU_Progress.xlsx
+++ b/QC_QNU_Progress.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\GIT_Training\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\training\QNU training\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -364,7 +364,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +830,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1000,6 +1006,63 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,12 +1081,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1039,60 +1096,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1401,13 +1411,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1573,84 +1583,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+      <c r="BF5" s="103"/>
+      <c r="BG5" s="103"/>
+      <c r="BH5" s="103"/>
+      <c r="BI5" s="103"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="103"/>
+      <c r="BM5" s="103"/>
+      <c r="BN5" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="100" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1659,107 +1669,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="104"/>
+      <c r="BI6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="100"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="107" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2784,12 +2794,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3813,14 +3823,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="110" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -4844,12 +4854,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5873,12 +5883,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6902,12 +6912,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -6972,14 +6982,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7044,12 +7054,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7114,12 +7124,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7184,12 +7194,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7254,12 +7264,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7324,12 +7334,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7394,12 +7404,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7470,8 +7480,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7540,8 +7550,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7610,8 +7620,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7680,8 +7690,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7750,8 +7760,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7816,14 +7826,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="120" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7888,12 +7898,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -7958,12 +7968,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8028,12 +8038,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8098,12 +8108,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8240,10 +8250,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="125"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8308,10 +8318,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8376,10 +8386,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8444,10 +8454,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8512,10 +8522,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8580,10 +8590,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8648,10 +8658,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8716,10 +8726,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="126"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8784,10 +8794,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="126"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8852,10 +8862,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8920,10 +8930,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="126"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -8988,10 +8998,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="126"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9056,10 +9066,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9124,10 +9134,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9192,10 +9202,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9260,10 +9270,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="126"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9328,10 +9338,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9396,10 +9406,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="126"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9464,10 +9474,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="126"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9532,10 +9542,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9600,10 +9610,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9668,10 +9678,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="126"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9736,10 +9746,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="126"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9804,10 +9814,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="126"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9872,10 +9882,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9940,10 +9950,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="126"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10008,10 +10018,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10071,10 +10081,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="127"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10139,7 +10149,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="118" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10211,7 +10221,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10281,7 +10291,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10353,7 +10363,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10421,7 +10431,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10630,6 +10640,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -10640,37 +10681,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10702,13 +10712,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10874,84 +10884,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+      <c r="BF5" s="103"/>
+      <c r="BG5" s="103"/>
+      <c r="BH5" s="103"/>
+      <c r="BI5" s="103"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="103"/>
+      <c r="BM5" s="103"/>
+      <c r="BN5" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="100" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -10960,107 +10970,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="104"/>
+      <c r="BI6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="100"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="107" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12085,12 +12095,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13114,14 +13124,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="110" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14145,12 +14155,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15174,12 +15184,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16203,12 +16213,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16273,14 +16283,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16345,12 +16355,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16415,12 +16425,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16485,12 +16495,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16555,12 +16565,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16625,12 +16635,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16695,12 +16705,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16771,8 +16781,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16841,8 +16851,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16911,8 +16921,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -16981,8 +16991,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17051,8 +17061,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17117,14 +17127,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="120" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17189,12 +17199,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17259,12 +17269,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17329,12 +17339,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17399,12 +17409,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17541,10 +17551,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="125"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17609,10 +17619,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17677,10 +17687,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17745,10 +17755,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17813,10 +17823,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17881,10 +17891,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17949,10 +17959,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18017,10 +18027,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="126"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18085,10 +18095,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="126"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18153,10 +18163,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18221,10 +18231,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="126"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18289,10 +18299,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="126"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18357,10 +18367,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18425,10 +18435,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18493,10 +18503,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18561,10 +18571,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="126"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18629,10 +18639,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18697,10 +18707,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="126"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18765,10 +18775,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="126"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18833,10 +18843,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18901,10 +18911,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -18969,10 +18979,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="126"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19037,10 +19047,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="126"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19105,10 +19115,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="126"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19173,10 +19183,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19241,10 +19251,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="126"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19309,10 +19319,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19372,10 +19382,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="127"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19440,7 +19450,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="118" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19512,7 +19522,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19582,7 +19592,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19654,7 +19664,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19722,7 +19732,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19931,6 +19941,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -19941,37 +19982,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20003,13 +20013,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20175,84 +20185,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+      <c r="BF5" s="103"/>
+      <c r="BG5" s="103"/>
+      <c r="BH5" s="103"/>
+      <c r="BI5" s="103"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="103"/>
+      <c r="BM5" s="103"/>
+      <c r="BN5" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="100" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20261,107 +20271,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="104"/>
+      <c r="BI6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="100"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="107" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21386,12 +21396,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22415,14 +22425,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="110" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23446,12 +23456,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24475,12 +24485,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25504,12 +25514,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25574,14 +25584,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25646,12 +25656,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25716,12 +25726,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25786,12 +25796,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25856,12 +25866,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25926,12 +25936,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -25996,12 +26006,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26072,8 +26082,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26142,8 +26152,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26212,8 +26222,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26282,8 +26292,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26352,8 +26362,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26418,14 +26428,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="120" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26490,12 +26500,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26560,12 +26570,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26630,12 +26640,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26700,12 +26710,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26842,10 +26852,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="125"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26910,10 +26920,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -26978,10 +26988,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27046,10 +27056,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27114,10 +27124,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27182,10 +27192,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27250,10 +27260,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27318,10 +27328,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="126"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27386,10 +27396,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="126"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27454,10 +27464,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27522,10 +27532,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="126"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27590,10 +27600,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="126"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27658,10 +27668,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27726,10 +27736,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27794,10 +27804,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27862,10 +27872,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="126"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27930,10 +27940,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -27998,10 +28008,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="126"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28066,10 +28076,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="126"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28134,10 +28144,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28202,10 +28212,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28270,10 +28280,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="126"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28338,10 +28348,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="126"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28406,10 +28416,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="126"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28474,10 +28484,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28542,10 +28552,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="126"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28610,10 +28620,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28673,10 +28683,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="127"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28741,7 +28751,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="118" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28813,7 +28823,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28883,7 +28893,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -28955,7 +28965,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29023,7 +29033,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29232,6 +29242,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -29242,37 +29283,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29304,13 +29314,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29476,84 +29486,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+      <c r="BF5" s="103"/>
+      <c r="BG5" s="103"/>
+      <c r="BH5" s="103"/>
+      <c r="BI5" s="103"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="103"/>
+      <c r="BM5" s="103"/>
+      <c r="BN5" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="100" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29562,107 +29572,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="104"/>
+      <c r="BI6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="100"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="107" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30687,12 +30697,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31716,14 +31726,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="110" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32747,12 +32757,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33776,12 +33786,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34805,12 +34815,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34875,14 +34885,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34947,12 +34957,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35017,12 +35027,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35087,12 +35097,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35157,12 +35167,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35227,12 +35237,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35297,12 +35307,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35373,8 +35383,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35443,8 +35453,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35513,8 +35523,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35583,8 +35593,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35653,8 +35663,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35719,14 +35729,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="120" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35791,12 +35801,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35861,12 +35871,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35931,12 +35941,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36001,12 +36011,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36143,10 +36153,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="125"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36211,10 +36221,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36279,10 +36289,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36347,10 +36357,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36415,10 +36425,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36483,10 +36493,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36551,10 +36561,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36619,10 +36629,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="126"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36687,10 +36697,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="126"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36755,10 +36765,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36823,10 +36833,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="126"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36891,10 +36901,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="126"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -36959,10 +36969,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37027,10 +37037,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37095,10 +37105,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37163,10 +37173,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="126"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37231,10 +37241,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37299,10 +37309,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="126"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37367,10 +37377,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="126"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37435,10 +37445,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37503,10 +37513,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37571,10 +37581,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="126"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37639,10 +37649,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="126"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37707,10 +37717,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="126"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37775,10 +37785,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37843,10 +37853,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="126"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37911,10 +37921,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -37974,10 +37984,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="127"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38042,7 +38052,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="118" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38114,7 +38124,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38184,7 +38194,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38256,7 +38266,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38324,7 +38334,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38533,6 +38543,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -38543,37 +38584,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38584,7 +38594,7 @@
   <dimension ref="A1:AML65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="BI27" sqref="BI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -38605,13 +38615,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38777,84 +38787,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+      <c r="BF5" s="103"/>
+      <c r="BG5" s="103"/>
+      <c r="BH5" s="103"/>
+      <c r="BI5" s="103"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="103"/>
+      <c r="BM5" s="103"/>
+      <c r="BN5" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="100" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38863,107 +38873,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="104"/>
+      <c r="BI6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="100"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="107" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -39988,12 +39998,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -41017,21 +41027,21 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="110" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="81"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="129"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="130"/>
       <c r="J9" s="82"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="17"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="130"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="18"/>
@@ -42048,20 +42058,20 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
       <c r="I10" s="78"/>
       <c r="J10" s="78"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="134"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -43077,19 +43087,19 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="30"/>
@@ -44106,19 +44116,19 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="85"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="133"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="30"/>
@@ -44176,14 +44186,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44248,12 +44258,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44318,12 +44328,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44388,12 +44398,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44458,12 +44468,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44528,12 +44538,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44598,12 +44608,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44674,8 +44684,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44744,8 +44754,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44814,8 +44824,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44884,8 +44894,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -44954,8 +44964,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45020,14 +45030,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="120" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45092,12 +45102,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45162,12 +45172,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45232,12 +45242,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45302,12 +45312,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45444,10 +45454,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="125"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45512,10 +45522,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45580,10 +45590,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45648,10 +45658,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45716,10 +45726,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45784,10 +45794,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45852,10 +45862,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45920,10 +45930,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="126"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -45988,10 +45998,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="126"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46056,10 +46066,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46124,10 +46134,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="126"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46192,10 +46202,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="126"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46260,10 +46270,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46328,10 +46338,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46396,10 +46406,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46464,10 +46474,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="126"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46532,10 +46542,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46600,10 +46610,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="126"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46668,10 +46678,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="126"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46736,10 +46746,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46804,10 +46814,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46872,10 +46882,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="126"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46940,10 +46950,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="126"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47008,10 +47018,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="126"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47076,10 +47086,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47144,10 +47154,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="126"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47212,10 +47222,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47275,10 +47285,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="127"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47343,7 +47353,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="118" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47415,7 +47425,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47485,7 +47495,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47557,7 +47567,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47625,7 +47635,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47834,6 +47844,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -47844,39 +47885,9 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47906,13 +47917,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48078,84 +48089,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+      <c r="BF5" s="103"/>
+      <c r="BG5" s="103"/>
+      <c r="BH5" s="103"/>
+      <c r="BI5" s="103"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="103"/>
+      <c r="BM5" s="103"/>
+      <c r="BN5" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="100" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48164,107 +48175,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="104"/>
+      <c r="BI6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="100"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="107" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49289,12 +49300,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50318,14 +50329,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="110" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51349,12 +51360,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52378,12 +52389,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53407,12 +53418,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53477,14 +53488,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53549,12 +53560,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53619,12 +53630,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53689,12 +53700,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53759,12 +53770,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53829,12 +53840,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53899,12 +53910,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -53975,8 +53986,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54045,8 +54056,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54115,8 +54126,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54185,8 +54196,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54255,8 +54266,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54321,14 +54332,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="120" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54393,12 +54404,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54463,12 +54474,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54533,12 +54544,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54603,12 +54614,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54745,10 +54756,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="125"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54813,10 +54824,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54881,10 +54892,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -54949,10 +54960,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55017,10 +55028,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55085,10 +55096,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55153,10 +55164,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55221,10 +55232,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="126"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55289,10 +55300,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="126"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55357,10 +55368,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55425,10 +55436,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="126"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55493,10 +55504,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="126"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55561,10 +55572,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55629,10 +55640,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55697,10 +55708,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55765,10 +55776,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="126"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55833,10 +55844,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55901,10 +55912,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="126"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -55969,10 +55980,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="126"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56037,10 +56048,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56105,10 +56116,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56173,10 +56184,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="126"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56241,10 +56252,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="126"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56309,10 +56320,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="126"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56377,10 +56388,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56445,10 +56456,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="126"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56513,10 +56524,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56576,10 +56587,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="127"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56644,7 +56655,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="118" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56716,7 +56727,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56786,7 +56797,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56858,7 +56869,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56926,7 +56937,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57135,6 +57146,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -57145,37 +57187,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57207,13 +57218,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57379,84 +57390,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+      <c r="BF5" s="103"/>
+      <c r="BG5" s="103"/>
+      <c r="BH5" s="103"/>
+      <c r="BI5" s="103"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="103"/>
+      <c r="BM5" s="103"/>
+      <c r="BN5" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="100" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57465,107 +57476,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="104"/>
+      <c r="BI6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="100"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="107" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58590,12 +58601,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59619,14 +59630,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="110" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -60650,12 +60661,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -61679,12 +61690,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62708,12 +62719,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62778,14 +62789,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62850,12 +62861,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62920,12 +62931,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -62990,12 +63001,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63060,12 +63071,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63130,12 +63141,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63200,12 +63211,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63276,8 +63287,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63346,8 +63357,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63416,8 +63427,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63486,8 +63497,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63556,8 +63567,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63622,14 +63633,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="120" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63694,12 +63705,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63764,12 +63775,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63834,12 +63845,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63904,12 +63915,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64046,10 +64057,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="125"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64114,10 +64125,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64182,10 +64193,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64250,10 +64261,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64318,10 +64329,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64386,10 +64397,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64454,10 +64465,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="126"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64522,10 +64533,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="126"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64590,10 +64601,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="126"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64658,10 +64669,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64726,10 +64737,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="126"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64794,10 +64805,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="126"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64862,10 +64873,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64930,10 +64941,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -64998,10 +65009,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65066,10 +65077,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="126"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65134,10 +65145,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65202,10 +65213,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="126"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65270,10 +65281,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="126"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65338,10 +65349,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65406,10 +65417,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65474,10 +65485,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="126"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65542,10 +65553,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="126"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65610,10 +65621,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="126"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65678,10 +65689,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65746,10 +65757,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="126"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65814,10 +65825,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65877,10 +65888,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="127"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65945,7 +65956,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="118" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66017,7 +66028,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66087,7 +66098,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66159,7 +66170,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66227,7 +66238,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66436,22 +66447,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66462,21 +66472,22 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Progress.xlsx
+++ b/QC_QNU_Progress.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\training\QNU training\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\GIT_Training\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -437,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -818,6 +818,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1006,63 +1045,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,6 +1063,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1096,13 +1084,64 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1411,13 +1450,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1583,84 +1622,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="127"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="127"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="127"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
+      <c r="BI5" s="127"/>
+      <c r="BJ5" s="127"/>
+      <c r="BK5" s="127"/>
+      <c r="BL5" s="127"/>
+      <c r="BM5" s="127"/>
+      <c r="BN5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="122" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1669,107 +1708,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="123"/>
+      <c r="AY6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="123"/>
+      <c r="BA6" s="123"/>
+      <c r="BB6" s="123"/>
+      <c r="BC6" s="123"/>
+      <c r="BD6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="123"/>
+      <c r="BF6" s="123"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="123"/>
+      <c r="BI6" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="128"/>
+      <c r="BK6" s="128"/>
+      <c r="BL6" s="128"/>
+      <c r="BM6" s="128"/>
+      <c r="BN6" s="121"/>
+      <c r="BO6" s="122"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2794,12 +2833,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3823,14 +3862,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="112" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -4854,12 +4893,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5883,12 +5922,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6912,12 +6951,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -6982,14 +7021,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="112" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7054,12 +7093,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7124,12 +7163,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7194,12 +7233,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7264,12 +7303,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7334,12 +7373,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7404,12 +7443,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7480,8 +7519,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7550,8 +7589,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7620,8 +7659,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7690,8 +7729,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7760,8 +7799,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7826,14 +7865,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="101" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7898,12 +7937,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -7968,12 +8007,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8038,12 +8077,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8108,12 +8147,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="107"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8250,10 +8289,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8318,10 +8357,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8386,10 +8425,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8454,10 +8493,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8522,10 +8561,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8590,10 +8629,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8658,10 +8697,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8726,10 +8765,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8794,10 +8833,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8862,10 +8901,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8930,10 +8969,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -8998,10 +9037,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9066,10 +9105,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9134,10 +9173,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9202,10 +9241,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9270,10 +9309,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9338,10 +9377,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9406,10 +9445,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9474,10 +9513,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9542,10 +9581,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="109"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9610,10 +9649,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9678,10 +9717,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9746,10 +9785,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9814,10 +9853,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9882,10 +9921,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9950,10 +9989,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10018,10 +10057,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10081,10 +10120,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10149,7 +10188,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="99" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10221,7 +10260,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10291,7 +10330,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="100" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10363,7 +10402,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10431,7 +10470,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10640,27 +10679,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -10671,16 +10699,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10712,13 +10751,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10884,84 +10923,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="127"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="127"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="127"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
+      <c r="BI5" s="127"/>
+      <c r="BJ5" s="127"/>
+      <c r="BK5" s="127"/>
+      <c r="BL5" s="127"/>
+      <c r="BM5" s="127"/>
+      <c r="BN5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="122" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -10970,107 +11009,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="123"/>
+      <c r="AY6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="123"/>
+      <c r="BA6" s="123"/>
+      <c r="BB6" s="123"/>
+      <c r="BC6" s="123"/>
+      <c r="BD6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="123"/>
+      <c r="BF6" s="123"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="123"/>
+      <c r="BI6" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="128"/>
+      <c r="BK6" s="128"/>
+      <c r="BL6" s="128"/>
+      <c r="BM6" s="128"/>
+      <c r="BN6" s="121"/>
+      <c r="BO6" s="122"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12095,12 +12134,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13124,14 +13163,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="112" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14155,12 +14194,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15184,12 +15223,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16213,12 +16252,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16283,14 +16322,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="112" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16355,12 +16394,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16425,12 +16464,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16495,12 +16534,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16565,12 +16604,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16635,12 +16674,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16705,12 +16744,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16781,8 +16820,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16851,8 +16890,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16921,8 +16960,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -16991,8 +17030,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17061,8 +17100,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17127,14 +17166,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="101" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17199,12 +17238,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17269,12 +17308,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17339,12 +17378,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17409,12 +17448,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="107"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17551,10 +17590,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17619,10 +17658,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17687,10 +17726,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17755,10 +17794,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17823,10 +17862,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17891,10 +17930,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17959,10 +17998,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18027,10 +18066,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18095,10 +18134,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18163,10 +18202,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18231,10 +18270,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18299,10 +18338,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18367,10 +18406,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18435,10 +18474,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18503,10 +18542,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18571,10 +18610,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18639,10 +18678,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18707,10 +18746,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18775,10 +18814,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18843,10 +18882,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="109"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18911,10 +18950,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -18979,10 +19018,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19047,10 +19086,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19115,10 +19154,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19183,10 +19222,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19251,10 +19290,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19319,10 +19358,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19382,10 +19421,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19450,7 +19489,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="99" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19522,7 +19561,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19592,7 +19631,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="100" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19664,7 +19703,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19732,7 +19771,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19941,27 +19980,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -19972,16 +20000,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20013,13 +20052,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20185,84 +20224,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="127"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="127"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="127"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
+      <c r="BI5" s="127"/>
+      <c r="BJ5" s="127"/>
+      <c r="BK5" s="127"/>
+      <c r="BL5" s="127"/>
+      <c r="BM5" s="127"/>
+      <c r="BN5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="122" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20271,107 +20310,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="123"/>
+      <c r="AY6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="123"/>
+      <c r="BA6" s="123"/>
+      <c r="BB6" s="123"/>
+      <c r="BC6" s="123"/>
+      <c r="BD6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="123"/>
+      <c r="BF6" s="123"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="123"/>
+      <c r="BI6" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="128"/>
+      <c r="BK6" s="128"/>
+      <c r="BL6" s="128"/>
+      <c r="BM6" s="128"/>
+      <c r="BN6" s="121"/>
+      <c r="BO6" s="122"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21396,12 +21435,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22425,14 +22464,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="112" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23456,12 +23495,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24485,12 +24524,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25514,12 +25553,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25584,14 +25623,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="112" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25656,12 +25695,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25726,12 +25765,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25796,12 +25835,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25866,12 +25905,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25936,12 +25975,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26006,12 +26045,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26082,8 +26121,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26152,8 +26191,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26222,8 +26261,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26292,8 +26331,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26362,8 +26401,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26428,14 +26467,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="101" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26500,12 +26539,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26570,12 +26609,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26640,12 +26679,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26710,12 +26749,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="107"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26852,10 +26891,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26920,10 +26959,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -26988,10 +27027,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27056,10 +27095,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27124,10 +27163,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27192,10 +27231,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27260,10 +27299,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27328,10 +27367,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27396,10 +27435,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27464,10 +27503,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27532,10 +27571,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27600,10 +27639,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27668,10 +27707,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27736,10 +27775,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27804,10 +27843,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27872,10 +27911,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27940,10 +27979,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28008,10 +28047,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28076,10 +28115,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28144,10 +28183,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="109"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28212,10 +28251,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28280,10 +28319,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28348,10 +28387,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28416,10 +28455,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28484,10 +28523,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28552,10 +28591,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28620,10 +28659,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28683,10 +28722,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28751,7 +28790,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="99" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28823,7 +28862,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28893,7 +28932,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="100" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -28965,7 +29004,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29033,7 +29072,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29242,27 +29281,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -29273,16 +29301,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29314,13 +29353,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29486,84 +29525,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="127"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="127"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="127"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
+      <c r="BI5" s="127"/>
+      <c r="BJ5" s="127"/>
+      <c r="BK5" s="127"/>
+      <c r="BL5" s="127"/>
+      <c r="BM5" s="127"/>
+      <c r="BN5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="122" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29572,107 +29611,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="123"/>
+      <c r="AY6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="123"/>
+      <c r="BA6" s="123"/>
+      <c r="BB6" s="123"/>
+      <c r="BC6" s="123"/>
+      <c r="BD6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="123"/>
+      <c r="BF6" s="123"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="123"/>
+      <c r="BI6" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="128"/>
+      <c r="BK6" s="128"/>
+      <c r="BL6" s="128"/>
+      <c r="BM6" s="128"/>
+      <c r="BN6" s="121"/>
+      <c r="BO6" s="122"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30697,12 +30736,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31726,14 +31765,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="112" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32757,12 +32796,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33786,12 +33825,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34815,12 +34854,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34885,14 +34924,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="112" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34957,12 +34996,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35027,12 +35066,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35097,12 +35136,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35167,12 +35206,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35237,12 +35276,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35307,12 +35346,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35383,8 +35422,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35453,8 +35492,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35523,8 +35562,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35593,8 +35632,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35663,8 +35702,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35729,14 +35768,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="101" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35801,12 +35840,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35871,12 +35910,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35941,12 +35980,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36011,12 +36050,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="107"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36153,10 +36192,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36221,10 +36260,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36289,10 +36328,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36357,10 +36396,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36425,10 +36464,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36493,10 +36532,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36561,10 +36600,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36629,10 +36668,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36697,10 +36736,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36765,10 +36804,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36833,10 +36872,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36901,10 +36940,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -36969,10 +37008,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37037,10 +37076,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37105,10 +37144,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37173,10 +37212,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37241,10 +37280,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37309,10 +37348,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37377,10 +37416,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37445,10 +37484,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="109"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37513,10 +37552,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37581,10 +37620,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37649,10 +37688,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37717,10 +37756,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37785,10 +37824,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37853,10 +37892,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37921,10 +37960,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -37984,10 +38023,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38052,7 +38091,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="99" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38124,7 +38163,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38194,7 +38233,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="100" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38266,7 +38305,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38334,7 +38373,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38543,27 +38582,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -38574,16 +38602,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38594,7 +38633,7 @@
   <dimension ref="A1:AML65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BI27" sqref="BI27"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -38615,13 +38654,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38787,84 +38826,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="127"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="127"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="127"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
+      <c r="BI5" s="127"/>
+      <c r="BJ5" s="127"/>
+      <c r="BK5" s="127"/>
+      <c r="BL5" s="127"/>
+      <c r="BM5" s="127"/>
+      <c r="BN5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="122" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38873,107 +38912,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="123"/>
+      <c r="AY6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="123"/>
+      <c r="BA6" s="123"/>
+      <c r="BB6" s="123"/>
+      <c r="BC6" s="123"/>
+      <c r="BD6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="123"/>
+      <c r="BF6" s="123"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="123"/>
+      <c r="BI6" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="128"/>
+      <c r="BK6" s="128"/>
+      <c r="BL6" s="128"/>
+      <c r="BM6" s="128"/>
+      <c r="BN6" s="121"/>
+      <c r="BO6" s="122"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -39998,22 +40037,22 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="91"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="30"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -41027,24 +41066,24 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="112" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="118"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" s="132"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9" s="135"/>
+      <c r="N9"/>
+      <c r="O9"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
@@ -42058,22 +42097,22 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="132"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" s="80"/>
+      <c r="K10"/>
+      <c r="L10"/>
       <c r="M10" s="134"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="30"/>
+      <c r="N10"/>
+      <c r="O10"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -43087,22 +43126,22 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
       <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="30"/>
+      <c r="J11" s="80"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
@@ -44116,22 +44155,22 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="30"/>
+      <c r="J12" s="133"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -44186,14 +44225,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="112" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44258,12 +44297,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44328,12 +44367,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44398,12 +44437,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44468,12 +44507,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44538,12 +44577,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44608,12 +44647,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44684,8 +44723,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44754,8 +44793,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44824,8 +44863,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44894,8 +44933,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -44964,8 +45003,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45030,14 +45069,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="101" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45102,12 +45141,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45172,12 +45211,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45242,12 +45281,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45312,12 +45351,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="107"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45454,10 +45493,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45522,10 +45561,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45590,10 +45629,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45658,10 +45697,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45726,10 +45765,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45794,10 +45833,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45862,10 +45901,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45930,10 +45969,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -45998,10 +46037,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46066,10 +46105,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46134,10 +46173,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46202,10 +46241,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46270,10 +46309,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46338,10 +46377,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46406,10 +46445,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46474,10 +46513,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46542,10 +46581,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46610,10 +46649,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46678,10 +46717,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46746,10 +46785,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="109"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46814,10 +46853,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46882,10 +46921,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46950,10 +46989,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47018,10 +47057,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47086,10 +47125,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47154,10 +47193,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47222,10 +47261,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47285,10 +47324,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47353,7 +47392,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="99" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47425,7 +47464,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47495,7 +47534,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="100" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47567,7 +47606,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47635,7 +47674,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47844,27 +47883,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -47875,16 +47903,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47917,13 +47956,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48089,84 +48128,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="127"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="127"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="127"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
+      <c r="BI5" s="127"/>
+      <c r="BJ5" s="127"/>
+      <c r="BK5" s="127"/>
+      <c r="BL5" s="127"/>
+      <c r="BM5" s="127"/>
+      <c r="BN5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="122" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48175,107 +48214,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="123"/>
+      <c r="AY6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="123"/>
+      <c r="BA6" s="123"/>
+      <c r="BB6" s="123"/>
+      <c r="BC6" s="123"/>
+      <c r="BD6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="123"/>
+      <c r="BF6" s="123"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="123"/>
+      <c r="BI6" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="128"/>
+      <c r="BK6" s="128"/>
+      <c r="BL6" s="128"/>
+      <c r="BM6" s="128"/>
+      <c r="BN6" s="121"/>
+      <c r="BO6" s="122"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49300,12 +49339,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50329,14 +50368,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="112" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51360,12 +51399,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52389,12 +52428,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53418,12 +53457,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53488,14 +53527,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="112" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53560,12 +53599,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53630,12 +53669,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53700,12 +53739,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53770,12 +53809,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53840,12 +53879,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53910,12 +53949,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -53986,8 +54025,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54056,8 +54095,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54126,8 +54165,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54196,8 +54235,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54266,8 +54305,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54332,14 +54371,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="101" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54404,12 +54443,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54474,12 +54513,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54544,12 +54583,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54614,12 +54653,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="107"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54756,10 +54795,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54824,10 +54863,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54892,10 +54931,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -54960,10 +54999,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55028,10 +55067,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55096,10 +55135,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55164,10 +55203,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55232,10 +55271,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55300,10 +55339,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55368,10 +55407,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55436,10 +55475,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55504,10 +55543,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55572,10 +55611,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55640,10 +55679,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55708,10 +55747,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55776,10 +55815,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55844,10 +55883,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55912,10 +55951,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -55980,10 +56019,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56048,10 +56087,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="109"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56116,10 +56155,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56184,10 +56223,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56252,10 +56291,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56320,10 +56359,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56388,10 +56427,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56456,10 +56495,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56524,10 +56563,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56587,10 +56626,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56655,7 +56694,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="99" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56727,7 +56766,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56797,7 +56836,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="100" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56869,7 +56908,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56937,7 +56976,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57146,27 +57185,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -57177,16 +57205,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57218,13 +57257,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57390,84 +57429,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="103"/>
-      <c r="BN5" s="106" t="s">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="127"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="127"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="127"/>
+      <c r="AV5" s="127"/>
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
+      <c r="BI5" s="127"/>
+      <c r="BJ5" s="127"/>
+      <c r="BK5" s="127"/>
+      <c r="BL5" s="127"/>
+      <c r="BM5" s="127"/>
+      <c r="BN5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="100" t="s">
+      <c r="BO5" s="122" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57476,107 +57515,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="104" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104" t="s">
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104" t="s">
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104" t="s">
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104" t="s">
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104" t="s">
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104" t="s">
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="123"/>
+      <c r="AY6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104" t="s">
+      <c r="AZ6" s="123"/>
+      <c r="BA6" s="123"/>
+      <c r="BB6" s="123"/>
+      <c r="BC6" s="123"/>
+      <c r="BD6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="105" t="s">
+      <c r="BE6" s="123"/>
+      <c r="BF6" s="123"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="123"/>
+      <c r="BI6" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="100"/>
+      <c r="BJ6" s="128"/>
+      <c r="BK6" s="128"/>
+      <c r="BL6" s="128"/>
+      <c r="BM6" s="128"/>
+      <c r="BN6" s="121"/>
+      <c r="BO6" s="122"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58601,12 +58640,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="109"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59630,14 +59669,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="112" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -60661,12 +60700,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -61690,12 +61729,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="110"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62719,12 +62758,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62789,14 +62828,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="112" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62861,12 +62900,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62931,12 +62970,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63001,12 +63040,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63071,12 +63110,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="110"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63141,12 +63180,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="110"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63211,12 +63250,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="110"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63287,8 +63326,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63357,8 +63396,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="117"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63427,8 +63466,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="117"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63497,8 +63536,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="117"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63567,8 +63606,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63633,14 +63672,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="101" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="116"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63705,12 +63744,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="121"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63775,12 +63814,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="121"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="117"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63845,12 +63884,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="121"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="117"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63915,12 +63954,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="122"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="124"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="107"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64057,10 +64096,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64125,10 +64164,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64193,10 +64232,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64261,10 +64300,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="126"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64329,10 +64368,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="126"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64397,10 +64436,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="126"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64465,10 +64504,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="126"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="126"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64533,10 +64572,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="126"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="126"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64601,10 +64640,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="126"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="126"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64669,10 +64708,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="126"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="126"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64737,10 +64776,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="126"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64805,10 +64844,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="126"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="126"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64873,10 +64912,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="126"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64941,10 +64980,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="126"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65009,10 +65048,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="126"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65077,10 +65116,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65145,10 +65184,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="126"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65213,10 +65252,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="126"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65281,10 +65320,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65349,10 +65388,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="126"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="109"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65417,10 +65456,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="126"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65485,10 +65524,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="126"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65553,10 +65592,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="126"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="126"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65621,10 +65660,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="126"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="126"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65689,10 +65728,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="126"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65757,10 +65796,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65825,10 +65864,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="126"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65888,10 +65927,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="127"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65956,7 +65995,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="99" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66028,7 +66067,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="118"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66098,7 +66137,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="100" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66170,7 +66209,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="119"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66238,7 +66277,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="119"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66447,21 +66486,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66472,22 +66512,21 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Progress.xlsx
+++ b/QC_QNU_Progress.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\GIT_Training\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMA-Python\QC_Training_2019_01\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -244,7 +244,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -252,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -869,7 +869,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1045,6 +1045,70 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,12 +1127,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1084,64 +1142,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1432,31 +1434,31 @@
       <selection activeCell="AV30" sqref="AV30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1622,84 +1624,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="110"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="110"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="110"/>
+      <c r="BM5" s="110"/>
+      <c r="BN5" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="107" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1708,107 +1710,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="107"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2833,12 +2835,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3862,14 +3864,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -4893,12 +4895,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5922,12 +5924,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6951,12 +6953,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -7021,14 +7023,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7093,12 +7095,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7163,12 +7165,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7233,12 +7235,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7303,12 +7305,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7373,12 +7375,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7443,12 +7445,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7513,14 +7515,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7585,12 +7587,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7655,12 +7657,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7725,12 +7727,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7795,12 +7797,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7865,14 +7867,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="127" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7937,12 +7939,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -8007,12 +8009,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8077,12 +8079,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8147,12 +8149,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8289,10 +8291,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8357,10 +8359,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="133"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8425,10 +8427,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="133"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8493,10 +8495,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8561,10 +8563,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="133"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8629,10 +8631,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="133"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8697,10 +8699,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8765,10 +8767,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="133"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8833,10 +8835,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8901,10 +8903,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="133"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8969,10 +8971,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="133"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9037,10 +9039,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9105,10 +9107,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="133"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9173,10 +9175,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9241,10 +9243,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="133"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9309,10 +9311,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="133"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9377,10 +9379,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="133"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9445,10 +9447,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="133"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9513,10 +9515,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="133"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9581,10 +9583,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9649,10 +9651,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9717,10 +9719,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="133"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9785,10 +9787,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="133"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9853,10 +9855,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="133"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9921,10 +9923,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="133"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9989,10 +9991,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="133"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10057,10 +10059,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="133"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10120,10 +10122,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="134"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10188,7 +10190,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="125" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10260,7 +10262,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10330,7 +10332,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="126" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10402,7 +10404,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10470,7 +10472,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10679,6 +10681,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -10689,37 +10722,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10733,31 +10735,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10923,84 +10925,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="110"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="110"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="110"/>
+      <c r="BM5" s="110"/>
+      <c r="BN5" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="107" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -11009,107 +11011,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="107"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12134,12 +12136,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13163,14 +13165,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -14194,12 +14196,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15223,12 +15225,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16252,12 +16254,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16322,14 +16324,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16394,12 +16396,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16464,12 +16466,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16534,12 +16536,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16604,12 +16606,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16674,12 +16676,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16744,12 +16746,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16814,14 +16816,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16886,12 +16888,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16956,12 +16958,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17026,12 +17028,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17096,12 +17098,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17166,14 +17168,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="127" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17238,12 +17240,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17308,12 +17310,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17378,12 +17380,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17448,12 +17450,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17590,10 +17592,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17658,10 +17660,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="133"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17726,10 +17728,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="133"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17794,10 +17796,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17862,10 +17864,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="133"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17930,10 +17932,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="133"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -17998,10 +18000,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18066,10 +18068,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="133"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18134,10 +18136,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18202,10 +18204,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="133"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18270,10 +18272,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="133"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18338,10 +18340,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18406,10 +18408,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="133"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18474,10 +18476,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18542,10 +18544,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="133"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18610,10 +18612,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="133"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18678,10 +18680,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="133"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18746,10 +18748,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="133"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18814,10 +18816,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="133"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18882,10 +18884,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18950,10 +18952,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -19018,10 +19020,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="133"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19086,10 +19088,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="133"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19154,10 +19156,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="133"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19222,10 +19224,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="133"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19290,10 +19292,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="133"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19358,10 +19360,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="133"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19421,10 +19423,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="134"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19489,7 +19491,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="125" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19561,7 +19563,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19631,7 +19633,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="126" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19703,7 +19705,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19771,7 +19773,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19980,6 +19982,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -19990,37 +20023,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20034,31 +20036,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20224,84 +20226,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="110"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="110"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="110"/>
+      <c r="BM5" s="110"/>
+      <c r="BN5" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="107" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20310,107 +20312,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="107"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21435,12 +21437,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22464,14 +22466,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23495,12 +23497,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24524,12 +24526,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25553,12 +25555,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25623,14 +25625,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25695,12 +25697,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25765,12 +25767,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25835,12 +25837,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25905,12 +25907,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25975,12 +25977,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26045,12 +26047,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26115,14 +26117,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26187,12 +26189,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26257,12 +26259,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26327,12 +26329,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26397,12 +26399,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26467,14 +26469,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="127" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26539,12 +26541,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26609,12 +26611,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26679,12 +26681,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26749,12 +26751,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26891,10 +26893,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26959,10 +26961,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="133"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27027,10 +27029,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="133"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27095,10 +27097,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27163,10 +27165,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="133"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27231,10 +27233,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="133"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27299,10 +27301,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27367,10 +27369,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="133"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27435,10 +27437,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27503,10 +27505,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="133"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27571,10 +27573,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="133"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27639,10 +27641,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27707,10 +27709,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="133"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27775,10 +27777,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27843,10 +27845,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="133"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27911,10 +27913,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="133"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27979,10 +27981,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="133"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28047,10 +28049,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="133"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28115,10 +28117,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="133"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28183,10 +28185,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28251,10 +28253,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28319,10 +28321,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="133"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28387,10 +28389,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="133"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28455,10 +28457,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="133"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28523,10 +28525,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="133"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28591,10 +28593,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="133"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28659,10 +28661,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="133"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28722,10 +28724,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="134"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28790,7 +28792,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="125" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28862,7 +28864,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28932,7 +28934,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="126" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -29004,7 +29006,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29072,7 +29074,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29281,6 +29283,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -29291,37 +29324,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29335,31 +29337,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29525,84 +29527,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="110"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="110"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="110"/>
+      <c r="BM5" s="110"/>
+      <c r="BN5" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="107" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29611,107 +29613,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="107"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30736,12 +30738,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31765,14 +31767,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32796,12 +32798,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33825,12 +33827,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34854,12 +34856,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34924,14 +34926,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34996,12 +34998,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35066,12 +35068,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35136,12 +35138,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35206,12 +35208,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35276,12 +35278,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35346,12 +35348,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35416,14 +35418,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35488,12 +35490,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35558,12 +35560,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35628,12 +35630,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35698,12 +35700,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35768,14 +35770,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="127" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35840,12 +35842,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35910,12 +35912,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35980,12 +35982,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36050,12 +36052,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36192,10 +36194,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36260,10 +36262,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="133"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36328,10 +36330,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="133"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36396,10 +36398,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36464,10 +36466,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="133"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36532,10 +36534,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="133"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36600,10 +36602,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36668,10 +36670,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="133"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36736,10 +36738,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36804,10 +36806,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="133"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36872,10 +36874,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="133"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36940,10 +36942,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -37008,10 +37010,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="133"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37076,10 +37078,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37144,10 +37146,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="133"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37212,10 +37214,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="133"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37280,10 +37282,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="133"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37348,10 +37350,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="133"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37416,10 +37418,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="133"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37484,10 +37486,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37552,10 +37554,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37620,10 +37622,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="133"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37688,10 +37690,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="133"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37756,10 +37758,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="133"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37824,10 +37826,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="133"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37892,10 +37894,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="133"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37960,10 +37962,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="133"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -38023,10 +38025,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="134"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38091,7 +38093,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="125" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38163,7 +38165,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38233,7 +38235,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="126" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38305,7 +38307,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38373,7 +38375,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38582,6 +38584,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -38592,37 +38625,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38632,35 +38634,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38826,84 +38828,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="110"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="110"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="110"/>
+      <c r="BM5" s="110"/>
+      <c r="BN5" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="107" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38912,107 +38914,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="107"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -40037,17 +40039,17 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="130"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="91"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
@@ -41066,22 +41068,22 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="132"/>
+      <c r="J9" s="102"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9" s="135"/>
+      <c r="M9" s="105"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="19"/>
@@ -42097,12 +42099,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="77"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -42110,7 +42112,7 @@
       <c r="J10" s="80"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10" s="134"/>
+      <c r="M10" s="104"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10" s="29"/>
@@ -43126,12 +43128,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44155,17 +44157,17 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
-      <c r="J12" s="133"/>
+      <c r="J12" s="103"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
@@ -44225,14 +44227,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44297,12 +44299,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44367,12 +44369,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44437,12 +44439,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44507,12 +44509,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44577,12 +44579,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44647,12 +44649,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44717,14 +44719,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44789,12 +44791,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44859,12 +44861,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44929,12 +44931,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -44999,12 +45001,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45069,14 +45071,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="127" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45141,12 +45143,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45211,12 +45213,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45281,12 +45283,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45351,12 +45353,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45493,10 +45495,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45561,10 +45563,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="133"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45629,10 +45631,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="133"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45697,10 +45699,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45765,10 +45767,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="133"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45833,10 +45835,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="133"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45901,10 +45903,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45969,10 +45971,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="133"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -46037,10 +46039,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46105,10 +46107,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="133"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46173,10 +46175,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="133"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46241,10 +46243,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46309,10 +46311,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="133"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46377,10 +46379,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46445,10 +46447,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="133"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46513,10 +46515,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="133"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46581,10 +46583,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="133"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46649,10 +46651,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="133"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46717,10 +46719,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="133"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46785,10 +46787,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46853,10 +46855,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46921,10 +46923,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="133"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46989,10 +46991,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="133"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47057,10 +47059,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="133"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47125,10 +47127,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="133"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47193,10 +47195,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="133"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47261,10 +47263,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="133"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47324,10 +47326,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="134"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47392,7 +47394,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="125" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47464,7 +47466,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47534,7 +47536,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="126" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47606,7 +47608,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47674,7 +47676,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47883,6 +47885,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -47893,37 +47926,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47938,31 +47940,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48128,84 +48130,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="110"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="110"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="110"/>
+      <c r="BM5" s="110"/>
+      <c r="BN5" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="107" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48214,107 +48216,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="107"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49339,12 +49341,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50368,14 +50370,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51399,12 +51401,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52428,12 +52430,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53457,12 +53459,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53527,14 +53529,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53599,12 +53601,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53669,12 +53671,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53739,12 +53741,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53809,12 +53811,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53879,12 +53881,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53949,12 +53951,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -54019,14 +54021,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54091,12 +54093,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54161,12 +54163,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54231,12 +54233,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54301,12 +54303,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54371,14 +54373,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="127" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54443,12 +54445,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54513,12 +54515,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54583,12 +54585,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54653,12 +54655,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54795,10 +54797,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54863,10 +54865,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="133"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54931,10 +54933,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="133"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -54999,10 +55001,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55067,10 +55069,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="133"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55135,10 +55137,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="133"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55203,10 +55205,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55271,10 +55273,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="133"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55339,10 +55341,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55407,10 +55409,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="133"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55475,10 +55477,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="133"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55543,10 +55545,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55611,10 +55613,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="133"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55679,10 +55681,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55747,10 +55749,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="133"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55815,10 +55817,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="133"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55883,10 +55885,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="133"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55951,10 +55953,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="133"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -56019,10 +56021,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="133"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56087,10 +56089,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56155,10 +56157,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56223,10 +56225,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="133"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56291,10 +56293,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="133"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56359,10 +56361,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="133"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56427,10 +56429,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="133"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56495,10 +56497,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="133"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56563,10 +56565,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="133"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56626,10 +56628,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="134"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56694,7 +56696,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="125" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56766,7 +56768,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56836,7 +56838,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="126" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56908,7 +56910,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56976,7 +56978,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57185,6 +57187,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -57195,37 +57228,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57235,35 +57237,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.125" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.140625" style="3"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.125" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.140625" style="3"/>
-    <col min="1027" max="16384" width="9.140625" style="4"/>
+    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.125" style="3"/>
+    <col min="1027" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57429,84 +57431,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
-      <c r="BI5" s="127"/>
-      <c r="BJ5" s="127"/>
-      <c r="BK5" s="127"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="127"/>
-      <c r="BN5" s="121" t="s">
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="110"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="110"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="110"/>
+      <c r="BM5" s="110"/>
+      <c r="BN5" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="122" t="s">
+      <c r="BO5" s="107" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57515,107 +57517,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123" t="s">
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123" t="s">
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123" t="s">
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123" t="s">
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123" t="s">
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123" t="s">
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123" t="s">
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123" t="s">
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123" t="s">
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
-      <c r="BI6" s="128" t="s">
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="121"/>
-      <c r="BO6" s="122"/>
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="107"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58640,12 +58642,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59669,17 +59671,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="H9" s="136"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -60700,12 +60702,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="112"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -60713,7 +60715,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="137"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -61729,12 +61731,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62758,12 +62760,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62828,14 +62830,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62900,12 +62902,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62970,12 +62972,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63040,12 +63042,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="112"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63110,12 +63112,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="112"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="116"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63180,12 +63182,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="112"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63250,12 +63252,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="112"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63320,14 +63322,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="122" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63392,12 +63394,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="115"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63462,12 +63464,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="115"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="106"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63532,12 +63534,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63602,12 +63604,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="115"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63672,14 +63674,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="127" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63744,12 +63746,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63814,12 +63816,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63884,12 +63886,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="102"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63954,12 +63956,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="107"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64096,10 +64098,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64164,10 +64166,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="109"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="109"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="133"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64232,10 +64234,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="109"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="133"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64300,10 +64302,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="109"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64368,10 +64370,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="109"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="109"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="133"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64436,10 +64438,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="109"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="133"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64504,10 +64506,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="109"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64572,10 +64574,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="133"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64640,10 +64642,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="109"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64708,10 +64710,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="109"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="133"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64776,10 +64778,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="109"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="109"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="133"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64844,10 +64846,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64912,10 +64914,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="109"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="109"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="133"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64980,10 +64982,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="109"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65048,10 +65050,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="109"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="109"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="133"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65116,10 +65118,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="109"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="133"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65184,10 +65186,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="109"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="133"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65252,10 +65254,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="109"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="109"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="133"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65320,10 +65322,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="109"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="133"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65388,10 +65390,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="109"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65456,10 +65458,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="109"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="109"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65524,10 +65526,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="109"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="109"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="133"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65592,10 +65594,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="109"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="109"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="133"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65660,10 +65662,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="109"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="133"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65728,10 +65730,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="109"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="109"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="133"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65796,10 +65798,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="109"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="133"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65864,10 +65866,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="109"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="109"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="133"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65927,10 +65929,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="110"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="110"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="134"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65995,7 +65997,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="125" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66067,7 +66069,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="99"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66137,7 +66139,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="126" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66209,7 +66211,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="100"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66277,7 +66279,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="100"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66486,22 +66488,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66512,21 +66513,22 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Progress.xlsx
+++ b/QC_QNU_Progress.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMA-Python\QC_Training_2019_01\QC_Training_2019_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhat\Desktop\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -244,7 +244,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -252,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1052,63 +1052,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,6 +1072,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1142,8 +1093,57 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1434,31 +1434,31 @@
       <selection activeCell="AV30" sqref="AV30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1624,84 +1624,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="110"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="110"/>
-      <c r="AX5" s="110"/>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="110"/>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="110"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="110"/>
-      <c r="BH5" s="110"/>
-      <c r="BI5" s="110"/>
-      <c r="BJ5" s="110"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="110"/>
-      <c r="BM5" s="110"/>
-      <c r="BN5" s="113" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="107" t="s">
+      <c r="BO5" s="131" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1710,107 +1710,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="111" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111" t="s">
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111" t="s">
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111" t="s">
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111" t="s">
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111" t="s">
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111" t="s">
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111" t="s">
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111" t="s">
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="132"/>
+      <c r="AT6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111" t="s">
+      <c r="AU6" s="132"/>
+      <c r="AV6" s="132"/>
+      <c r="AW6" s="132"/>
+      <c r="AX6" s="132"/>
+      <c r="AY6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111" t="s">
+      <c r="AZ6" s="132"/>
+      <c r="BA6" s="132"/>
+      <c r="BB6" s="132"/>
+      <c r="BC6" s="132"/>
+      <c r="BD6" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="112" t="s">
+      <c r="BE6" s="132"/>
+      <c r="BF6" s="132"/>
+      <c r="BG6" s="132"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="112"/>
-      <c r="BM6" s="112"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="107"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="137"/>
+      <c r="BL6" s="137"/>
+      <c r="BM6" s="137"/>
+      <c r="BN6" s="130"/>
+      <c r="BO6" s="131"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="125" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2835,12 +2835,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="114"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3864,14 +3864,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="121" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -4895,12 +4895,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5924,12 +5924,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="117"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6953,12 +6953,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="121"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -7023,14 +7023,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="121" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="116"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7095,12 +7095,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7165,12 +7165,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="117"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="116"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7235,12 +7235,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="116"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7305,12 +7305,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="117"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="116"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7375,12 +7375,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="116"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7445,12 +7445,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="117"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7515,14 +7515,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="124" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="123"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7587,12 +7587,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7657,12 +7657,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7727,12 +7727,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7797,12 +7797,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7867,14 +7867,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="110" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7939,12 +7939,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="128"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="124"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -8009,12 +8009,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="128"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="124"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8079,12 +8079,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="128"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="124"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8149,12 +8149,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="129"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8291,10 +8291,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="132"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="132"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8359,10 +8359,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="133"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="133"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8427,10 +8427,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="133"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="133"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="118"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8495,10 +8495,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="133"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="133"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8563,10 +8563,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="133"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="133"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="118"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8631,10 +8631,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="133"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="133"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8699,10 +8699,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="133"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="133"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="118"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8767,10 +8767,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="133"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="133"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8835,10 +8835,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="133"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="133"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="118"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8903,10 +8903,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="133"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8971,10 +8971,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="133"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9039,10 +9039,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="133"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9107,10 +9107,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="133"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="118"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9175,10 +9175,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="118"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9243,10 +9243,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="133"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="118"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9311,10 +9311,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="133"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="133"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9379,10 +9379,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="133"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="133"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9447,10 +9447,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="133"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="133"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9515,10 +9515,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="133"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="133"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="118"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9583,10 +9583,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="133"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="133"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9651,10 +9651,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="133"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="133"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="118"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9719,10 +9719,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="133"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="133"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="118"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9787,10 +9787,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="133"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="133"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="118"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9855,10 +9855,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="133"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="133"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="118"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9923,10 +9923,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="133"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="133"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="118"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9991,10 +9991,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="133"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="133"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="118"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10059,10 +10059,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="133"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="133"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10122,10 +10122,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="134"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="134"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="119"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10190,7 +10190,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="108" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10262,7 +10262,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="125"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10332,7 +10332,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="126" t="s">
+      <c r="B61" s="109" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10404,7 +10404,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="126"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10472,7 +10472,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="126"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10681,27 +10681,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -10712,16 +10701,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10731,35 +10731,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10925,84 +10925,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="110"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="110"/>
-      <c r="AX5" s="110"/>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="110"/>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="110"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="110"/>
-      <c r="BH5" s="110"/>
-      <c r="BI5" s="110"/>
-      <c r="BJ5" s="110"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="110"/>
-      <c r="BM5" s="110"/>
-      <c r="BN5" s="113" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="107" t="s">
+      <c r="BO5" s="131" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -11011,107 +11011,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="111" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111" t="s">
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111" t="s">
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111" t="s">
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111" t="s">
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111" t="s">
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111" t="s">
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111" t="s">
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111" t="s">
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="132"/>
+      <c r="AT6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111" t="s">
+      <c r="AU6" s="132"/>
+      <c r="AV6" s="132"/>
+      <c r="AW6" s="132"/>
+      <c r="AX6" s="132"/>
+      <c r="AY6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111" t="s">
+      <c r="AZ6" s="132"/>
+      <c r="BA6" s="132"/>
+      <c r="BB6" s="132"/>
+      <c r="BC6" s="132"/>
+      <c r="BD6" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="112" t="s">
+      <c r="BE6" s="132"/>
+      <c r="BF6" s="132"/>
+      <c r="BG6" s="132"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="112"/>
-      <c r="BM6" s="112"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="107"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="137"/>
+      <c r="BL6" s="137"/>
+      <c r="BM6" s="137"/>
+      <c r="BN6" s="130"/>
+      <c r="BO6" s="131"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="125" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12136,12 +12136,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="114"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13165,17 +13165,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="121" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -14196,12 +14196,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -14209,7 +14209,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="107"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -15225,12 +15225,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="117"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16254,12 +16254,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="121"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16324,14 +16324,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="121" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="116"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16396,12 +16396,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16466,12 +16466,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="117"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="116"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16536,12 +16536,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="116"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16606,12 +16606,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="117"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="116"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16676,12 +16676,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="116"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16746,12 +16746,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="117"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16816,14 +16816,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="124" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="123"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16888,12 +16888,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16958,12 +16958,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17028,12 +17028,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17098,12 +17098,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17168,14 +17168,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="110" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17240,12 +17240,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="128"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="124"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17310,12 +17310,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="128"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="124"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17380,12 +17380,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="128"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="124"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17450,12 +17450,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="129"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17592,10 +17592,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="132"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="132"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17660,10 +17660,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="133"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="133"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17728,10 +17728,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="133"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="133"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="118"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17796,10 +17796,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="133"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="133"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17864,10 +17864,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="133"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="133"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="118"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17932,10 +17932,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="133"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="133"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -18000,10 +18000,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="133"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="133"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="118"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18068,10 +18068,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="133"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="133"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18136,10 +18136,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="133"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="133"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="118"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18204,10 +18204,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="133"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18272,10 +18272,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="133"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18340,10 +18340,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="133"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18408,10 +18408,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="133"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="118"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18476,10 +18476,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="118"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18544,10 +18544,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="133"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="118"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18612,10 +18612,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="133"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="133"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18680,10 +18680,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="133"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="133"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18748,10 +18748,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="133"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="133"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18816,10 +18816,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="133"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="133"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="118"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18884,10 +18884,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="133"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="133"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18952,10 +18952,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="133"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="133"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="118"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -19020,10 +19020,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="133"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="133"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="118"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19088,10 +19088,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="133"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="133"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="118"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19156,10 +19156,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="133"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="133"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="118"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19224,10 +19224,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="133"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="133"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="118"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19292,10 +19292,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="133"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="133"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="118"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19360,10 +19360,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="133"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="133"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19423,10 +19423,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="134"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="134"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="119"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19491,7 +19491,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="108" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19563,7 +19563,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="125"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19633,7 +19633,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="126" t="s">
+      <c r="B61" s="109" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19705,7 +19705,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="126"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19773,7 +19773,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="126"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19982,27 +19982,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -20013,16 +20002,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20036,31 +20036,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20226,84 +20226,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="110"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="110"/>
-      <c r="AX5" s="110"/>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="110"/>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="110"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="110"/>
-      <c r="BH5" s="110"/>
-      <c r="BI5" s="110"/>
-      <c r="BJ5" s="110"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="110"/>
-      <c r="BM5" s="110"/>
-      <c r="BN5" s="113" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="107" t="s">
+      <c r="BO5" s="131" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20312,107 +20312,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="111" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111" t="s">
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111" t="s">
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111" t="s">
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111" t="s">
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111" t="s">
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111" t="s">
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111" t="s">
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111" t="s">
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="132"/>
+      <c r="AT6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111" t="s">
+      <c r="AU6" s="132"/>
+      <c r="AV6" s="132"/>
+      <c r="AW6" s="132"/>
+      <c r="AX6" s="132"/>
+      <c r="AY6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111" t="s">
+      <c r="AZ6" s="132"/>
+      <c r="BA6" s="132"/>
+      <c r="BB6" s="132"/>
+      <c r="BC6" s="132"/>
+      <c r="BD6" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="112" t="s">
+      <c r="BE6" s="132"/>
+      <c r="BF6" s="132"/>
+      <c r="BG6" s="132"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="112"/>
-      <c r="BM6" s="112"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="107"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="137"/>
+      <c r="BL6" s="137"/>
+      <c r="BM6" s="137"/>
+      <c r="BN6" s="130"/>
+      <c r="BO6" s="131"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="125" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21437,12 +21437,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="114"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22466,14 +22466,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="121" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23497,12 +23497,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24526,12 +24526,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="117"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25555,12 +25555,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="121"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25625,14 +25625,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="121" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="116"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25697,12 +25697,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25767,12 +25767,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="117"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="116"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25837,12 +25837,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="116"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25907,12 +25907,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="117"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="116"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25977,12 +25977,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="116"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26047,12 +26047,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="117"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26117,14 +26117,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="124" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="123"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26189,12 +26189,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26259,12 +26259,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26329,12 +26329,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26399,12 +26399,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26469,14 +26469,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="110" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26541,12 +26541,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="128"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="124"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26611,12 +26611,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="128"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="124"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26681,12 +26681,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="128"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="124"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26751,12 +26751,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="129"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26893,10 +26893,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="132"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="132"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26961,10 +26961,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="133"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="133"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27029,10 +27029,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="133"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="133"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="118"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27097,10 +27097,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="133"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="133"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27165,10 +27165,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="133"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="133"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="118"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27233,10 +27233,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="133"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="133"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27301,10 +27301,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="133"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="133"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="118"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27369,10 +27369,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="133"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="133"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27437,10 +27437,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="133"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="133"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="118"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27505,10 +27505,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="133"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27573,10 +27573,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="133"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27641,10 +27641,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="133"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27709,10 +27709,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="133"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="118"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27777,10 +27777,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="118"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27845,10 +27845,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="133"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="118"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27913,10 +27913,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="133"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="133"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27981,10 +27981,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="133"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="133"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28049,10 +28049,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="133"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="133"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28117,10 +28117,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="133"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="133"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="118"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28185,10 +28185,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="133"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="133"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28253,10 +28253,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="133"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="133"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="118"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28321,10 +28321,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="133"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="133"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="118"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28389,10 +28389,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="133"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="133"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="118"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28457,10 +28457,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="133"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="133"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="118"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28525,10 +28525,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="133"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="133"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="118"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28593,10 +28593,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="133"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="133"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="118"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28661,10 +28661,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="133"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="133"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28724,10 +28724,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="134"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="134"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="119"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28792,7 +28792,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="108" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28864,7 +28864,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="125"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28934,7 +28934,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="126" t="s">
+      <c r="B61" s="109" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -29006,7 +29006,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="126"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29074,7 +29074,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="126"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29283,27 +29283,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -29314,16 +29303,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29337,31 +29337,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29527,84 +29527,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="110"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="110"/>
-      <c r="AX5" s="110"/>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="110"/>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="110"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="110"/>
-      <c r="BH5" s="110"/>
-      <c r="BI5" s="110"/>
-      <c r="BJ5" s="110"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="110"/>
-      <c r="BM5" s="110"/>
-      <c r="BN5" s="113" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="107" t="s">
+      <c r="BO5" s="131" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29613,107 +29613,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="111" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111" t="s">
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111" t="s">
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111" t="s">
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111" t="s">
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111" t="s">
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111" t="s">
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111" t="s">
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111" t="s">
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="132"/>
+      <c r="AT6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111" t="s">
+      <c r="AU6" s="132"/>
+      <c r="AV6" s="132"/>
+      <c r="AW6" s="132"/>
+      <c r="AX6" s="132"/>
+      <c r="AY6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111" t="s">
+      <c r="AZ6" s="132"/>
+      <c r="BA6" s="132"/>
+      <c r="BB6" s="132"/>
+      <c r="BC6" s="132"/>
+      <c r="BD6" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="112" t="s">
+      <c r="BE6" s="132"/>
+      <c r="BF6" s="132"/>
+      <c r="BG6" s="132"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="112"/>
-      <c r="BM6" s="112"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="107"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="137"/>
+      <c r="BL6" s="137"/>
+      <c r="BM6" s="137"/>
+      <c r="BN6" s="130"/>
+      <c r="BO6" s="131"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="125" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30738,12 +30738,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="114"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31767,14 +31767,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="121" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32798,12 +32798,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33827,12 +33827,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="117"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34856,12 +34856,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="121"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34926,14 +34926,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="121" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="116"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34998,12 +34998,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35068,12 +35068,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="117"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="116"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35138,12 +35138,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="116"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35208,12 +35208,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="117"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="116"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35278,12 +35278,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="116"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35348,12 +35348,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="117"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35418,14 +35418,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="124" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="123"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35490,12 +35490,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35560,12 +35560,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35630,12 +35630,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35700,12 +35700,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35770,14 +35770,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="110" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35842,12 +35842,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="128"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="124"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35912,12 +35912,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="128"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="124"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35982,12 +35982,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="128"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="124"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36052,12 +36052,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="129"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36194,10 +36194,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="132"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="132"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36262,10 +36262,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="133"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="133"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36330,10 +36330,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="133"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="133"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="118"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36398,10 +36398,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="133"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="133"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36466,10 +36466,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="133"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="133"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="118"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36534,10 +36534,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="133"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="133"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36602,10 +36602,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="133"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="133"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="118"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36670,10 +36670,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="133"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="133"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36738,10 +36738,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="133"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="133"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="118"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36806,10 +36806,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="133"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36874,10 +36874,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="133"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36942,10 +36942,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="133"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -37010,10 +37010,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="133"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="118"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37078,10 +37078,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="118"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37146,10 +37146,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="133"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="118"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37214,10 +37214,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="133"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="133"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37282,10 +37282,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="133"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="133"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37350,10 +37350,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="133"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="133"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37418,10 +37418,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="133"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="133"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="118"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37486,10 +37486,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="133"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="133"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37554,10 +37554,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="133"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="133"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="118"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37622,10 +37622,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="133"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="133"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="118"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37690,10 +37690,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="133"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="133"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="118"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37758,10 +37758,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="133"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="133"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="118"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37826,10 +37826,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="133"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="133"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="118"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37894,10 +37894,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="133"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="133"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="118"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37962,10 +37962,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="133"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="133"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -38025,10 +38025,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="134"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="134"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="119"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38093,7 +38093,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="108" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38165,7 +38165,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="125"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38235,7 +38235,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="126" t="s">
+      <c r="B61" s="109" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38307,7 +38307,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="126"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38375,7 +38375,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="126"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38584,27 +38584,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -38615,16 +38604,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38638,31 +38638,31 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38828,84 +38828,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="110"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="110"/>
-      <c r="AX5" s="110"/>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="110"/>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="110"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="110"/>
-      <c r="BH5" s="110"/>
-      <c r="BI5" s="110"/>
-      <c r="BJ5" s="110"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="110"/>
-      <c r="BM5" s="110"/>
-      <c r="BN5" s="113" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="107" t="s">
+      <c r="BO5" s="131" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38914,107 +38914,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="111" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111" t="s">
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111" t="s">
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111" t="s">
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111" t="s">
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111" t="s">
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111" t="s">
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111" t="s">
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111" t="s">
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="132"/>
+      <c r="AT6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111" t="s">
+      <c r="AU6" s="132"/>
+      <c r="AV6" s="132"/>
+      <c r="AW6" s="132"/>
+      <c r="AX6" s="132"/>
+      <c r="AY6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111" t="s">
+      <c r="AZ6" s="132"/>
+      <c r="BA6" s="132"/>
+      <c r="BB6" s="132"/>
+      <c r="BC6" s="132"/>
+      <c r="BD6" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="112" t="s">
+      <c r="BE6" s="132"/>
+      <c r="BF6" s="132"/>
+      <c r="BG6" s="132"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="112"/>
-      <c r="BM6" s="112"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="107"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="137"/>
+      <c r="BL6" s="137"/>
+      <c r="BM6" s="137"/>
+      <c r="BN6" s="130"/>
+      <c r="BO6" s="131"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="125" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -40039,12 +40039,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="114"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="99"/>
       <c r="G8" s="100"/>
       <c r="H8" s="91"/>
@@ -41068,14 +41068,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="121" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="127"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -42099,12 +42099,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="77"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -43128,12 +43128,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="117"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44157,12 +44157,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="121"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -44227,14 +44227,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="121" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="116"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44299,12 +44299,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44369,12 +44369,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="117"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="116"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44439,12 +44439,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="116"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44509,12 +44509,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="117"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="116"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44579,12 +44579,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="116"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44649,12 +44649,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="117"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44719,14 +44719,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="124" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="123"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44791,12 +44791,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44861,12 +44861,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44931,12 +44931,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -45001,12 +45001,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45071,14 +45071,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="110" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45143,12 +45143,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="128"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="124"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45213,12 +45213,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="128"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="124"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45283,12 +45283,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="128"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="124"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45353,12 +45353,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="129"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45495,10 +45495,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="132"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="132"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45563,10 +45563,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="133"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="133"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45631,10 +45631,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="133"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="133"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="118"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45699,10 +45699,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="133"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="133"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45767,10 +45767,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="133"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="133"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="118"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45835,10 +45835,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="133"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="133"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45903,10 +45903,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="133"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="133"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="118"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45971,10 +45971,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="133"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="133"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -46039,10 +46039,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="133"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="133"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="118"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46107,10 +46107,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="133"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46175,10 +46175,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="133"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46243,10 +46243,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="133"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46311,10 +46311,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="133"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="118"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46379,10 +46379,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="118"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46447,10 +46447,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="133"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="118"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46515,10 +46515,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="133"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="133"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46583,10 +46583,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="133"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="133"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46651,10 +46651,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="133"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="133"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46719,10 +46719,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="133"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="133"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="118"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46787,10 +46787,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="133"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="133"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46855,10 +46855,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="133"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="133"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="118"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46923,10 +46923,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="133"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="133"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="118"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46991,10 +46991,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="133"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="133"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="118"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47059,10 +47059,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="133"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="133"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="118"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47127,10 +47127,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="133"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="133"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="118"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47195,10 +47195,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="133"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="133"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="118"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47263,10 +47263,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="133"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="133"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47326,10 +47326,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="134"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="134"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="119"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47394,7 +47394,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="108" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47466,7 +47466,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="125"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47536,7 +47536,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="126" t="s">
+      <c r="B61" s="109" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47608,7 +47608,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="126"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47676,7 +47676,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="126"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47885,27 +47885,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -47916,16 +47905,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47940,31 +47940,31 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48130,84 +48130,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="110"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="110"/>
-      <c r="AX5" s="110"/>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="110"/>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="110"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="110"/>
-      <c r="BH5" s="110"/>
-      <c r="BI5" s="110"/>
-      <c r="BJ5" s="110"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="110"/>
-      <c r="BM5" s="110"/>
-      <c r="BN5" s="113" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="107" t="s">
+      <c r="BO5" s="131" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48216,107 +48216,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="111" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111" t="s">
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111" t="s">
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111" t="s">
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111" t="s">
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111" t="s">
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111" t="s">
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111" t="s">
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111" t="s">
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="132"/>
+      <c r="AT6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111" t="s">
+      <c r="AU6" s="132"/>
+      <c r="AV6" s="132"/>
+      <c r="AW6" s="132"/>
+      <c r="AX6" s="132"/>
+      <c r="AY6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111" t="s">
+      <c r="AZ6" s="132"/>
+      <c r="BA6" s="132"/>
+      <c r="BB6" s="132"/>
+      <c r="BC6" s="132"/>
+      <c r="BD6" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="112" t="s">
+      <c r="BE6" s="132"/>
+      <c r="BF6" s="132"/>
+      <c r="BG6" s="132"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="112"/>
-      <c r="BM6" s="112"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="107"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="137"/>
+      <c r="BL6" s="137"/>
+      <c r="BM6" s="137"/>
+      <c r="BN6" s="130"/>
+      <c r="BO6" s="131"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="125" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49341,12 +49341,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="114"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50370,14 +50370,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="121" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -51401,12 +51401,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52430,12 +52430,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="117"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53459,12 +53459,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="121"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53529,14 +53529,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="121" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="116"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53601,12 +53601,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53671,12 +53671,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="117"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="116"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53741,12 +53741,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="116"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53811,12 +53811,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="117"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="116"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53881,12 +53881,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="116"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53951,12 +53951,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="117"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -54021,14 +54021,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="124" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="123"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54093,12 +54093,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54163,12 +54163,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54233,12 +54233,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54303,12 +54303,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54373,14 +54373,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="110" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54445,12 +54445,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="128"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="124"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54515,12 +54515,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="128"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="124"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54585,12 +54585,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="128"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="124"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54655,12 +54655,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="129"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54797,10 +54797,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="132"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="132"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54865,10 +54865,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="133"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="133"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54933,10 +54933,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="133"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="133"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="118"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -55001,10 +55001,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="133"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="133"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55069,10 +55069,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="133"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="133"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="118"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55137,10 +55137,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="133"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="133"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55205,10 +55205,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="133"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="133"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="118"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55273,10 +55273,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="133"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="133"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55341,10 +55341,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="133"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="133"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="118"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55409,10 +55409,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="133"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55477,10 +55477,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="133"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55545,10 +55545,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="133"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55613,10 +55613,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="133"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="118"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55681,10 +55681,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="118"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55749,10 +55749,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="133"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="118"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55817,10 +55817,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="133"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="133"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55885,10 +55885,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="133"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="133"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55953,10 +55953,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="133"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="133"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -56021,10 +56021,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="133"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="133"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="118"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56089,10 +56089,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="133"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="133"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56157,10 +56157,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="133"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="133"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="118"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56225,10 +56225,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="133"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="133"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="118"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56293,10 +56293,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="133"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="133"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="118"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56361,10 +56361,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="133"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="133"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="118"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56429,10 +56429,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="133"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="133"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="118"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56497,10 +56497,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="133"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="133"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="118"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56565,10 +56565,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="133"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="133"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56628,10 +56628,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="134"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="134"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="119"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56696,7 +56696,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="108" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56768,7 +56768,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="125"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56838,7 +56838,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="126" t="s">
+      <c r="B61" s="109" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56910,7 +56910,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="126"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56978,7 +56978,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="126"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57187,27 +57187,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -57218,16 +57207,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57237,35 +57237,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="65" width="2.25" style="3" customWidth="1"/>
-    <col min="66" max="69" width="9.125" style="3"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="65" width="2.28515625" style="3" customWidth="1"/>
+    <col min="66" max="69" width="9.140625" style="3"/>
     <col min="70" max="70" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.85546875" style="3" customWidth="1"/>
     <col min="72" max="72" width="13" style="3" customWidth="1"/>
-    <col min="73" max="73" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="1026" width="9.125" style="3"/>
-    <col min="1027" max="16384" width="9.125" style="4"/>
+    <col min="73" max="73" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="1026" width="9.140625" style="3"/>
+    <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57431,84 +57431,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="110"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="110"/>
-      <c r="AX5" s="110"/>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="110"/>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="110"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="110"/>
-      <c r="BH5" s="110"/>
-      <c r="BI5" s="110"/>
-      <c r="BJ5" s="110"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="110"/>
-      <c r="BM5" s="110"/>
-      <c r="BN5" s="113" t="s">
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
+      <c r="BN5" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="107" t="s">
+      <c r="BO5" s="131" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57517,107 +57517,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="111" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111" t="s">
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111" t="s">
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111" t="s">
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111" t="s">
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111" t="s">
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111" t="s">
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111" t="s">
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111" t="s">
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="132"/>
+      <c r="AT6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111" t="s">
+      <c r="AU6" s="132"/>
+      <c r="AV6" s="132"/>
+      <c r="AW6" s="132"/>
+      <c r="AX6" s="132"/>
+      <c r="AY6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111" t="s">
+      <c r="AZ6" s="132"/>
+      <c r="BA6" s="132"/>
+      <c r="BB6" s="132"/>
+      <c r="BC6" s="132"/>
+      <c r="BD6" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="112" t="s">
+      <c r="BE6" s="132"/>
+      <c r="BF6" s="132"/>
+      <c r="BG6" s="132"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="112"/>
-      <c r="BM6" s="112"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="107"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="137"/>
+      <c r="BL6" s="137"/>
+      <c r="BM6" s="137"/>
+      <c r="BN6" s="130"/>
+      <c r="BO6" s="131"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="125" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58642,12 +58642,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="114"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="116"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59671,17 +59671,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="121" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="136"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -60702,12 +60702,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -60715,7 +60715,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="137"/>
+      <c r="M10" s="107"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -61731,12 +61731,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="117"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62760,12 +62760,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="121"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62830,14 +62830,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="121" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="116"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62902,12 +62902,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62972,12 +62972,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="117"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="116"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63042,12 +63042,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="116"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63112,12 +63112,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="117"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="116"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63182,12 +63182,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="116"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63252,12 +63252,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="117"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63322,14 +63322,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="124" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="123"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63394,12 +63394,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="122"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63464,12 +63464,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="122"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63534,12 +63534,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63604,12 +63604,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="122"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63674,14 +63674,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="110" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63746,12 +63746,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="128"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="124"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63816,12 +63816,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="128"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="124"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63886,12 +63886,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="128"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="124"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63956,12 +63956,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="129"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64098,10 +64098,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="132"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="132"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64166,10 +64166,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="133"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="133"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64234,10 +64234,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="133"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="133"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="118"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64302,10 +64302,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="133"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="133"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64370,10 +64370,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="133"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="133"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="118"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64438,10 +64438,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="133"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="133"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64506,10 +64506,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="133"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="133"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="118"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64574,10 +64574,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="133"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="133"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64642,10 +64642,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="133"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="133"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="118"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64710,10 +64710,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="133"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64778,10 +64778,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="133"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64846,10 +64846,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="133"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64914,10 +64914,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="133"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="118"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64982,10 +64982,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="133"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="118"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65050,10 +65050,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="133"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="118"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65118,10 +65118,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="133"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="133"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65186,10 +65186,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="133"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="133"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65254,10 +65254,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="133"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="133"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65322,10 +65322,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="133"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="133"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="118"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65390,10 +65390,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="133"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="133"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65458,10 +65458,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="133"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="133"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="118"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65526,10 +65526,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="133"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="133"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="118"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65594,10 +65594,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="133"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="133"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="118"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65662,10 +65662,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="133"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="133"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="118"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65730,10 +65730,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="133"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="133"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="118"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65798,10 +65798,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="133"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="133"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="118"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65866,10 +65866,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="133"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="133"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65929,10 +65929,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="134"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="134"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="119"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65997,7 +65997,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="108" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66069,7 +66069,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="125"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66139,7 +66139,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="126" t="s">
+      <c r="B61" s="109" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66211,7 +66211,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="126"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66279,7 +66279,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="126"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66488,21 +66488,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66513,22 +66514,21 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Progress.xlsx
+++ b/QC_QNU_Progress.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhat\Desktop\QC_Training_2019_01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="690" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -240,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +355,12 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -869,7 +870,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1054,6 +1055,63 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,12 +1130,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,57 +1145,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1208,7 +1210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1243,7 +1245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1420,7 +1422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1434,7 +1436,7 @@
       <selection activeCell="AV30" sqref="AV30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -1451,16 +1453,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="1:1026" ht="45">
+      <c r="B1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
-    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1624,84 +1626,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="136"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="136"/>
-      <c r="AG5" s="136"/>
-      <c r="AH5" s="136"/>
-      <c r="AI5" s="136"/>
-      <c r="AJ5" s="136"/>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="136"/>
-      <c r="AM5" s="136"/>
-      <c r="AN5" s="136"/>
-      <c r="AO5" s="136"/>
-      <c r="AP5" s="136"/>
-      <c r="AQ5" s="136"/>
-      <c r="AR5" s="136"/>
-      <c r="AS5" s="136"/>
-      <c r="AT5" s="136"/>
-      <c r="AU5" s="136"/>
-      <c r="AV5" s="136"/>
-      <c r="AW5" s="136"/>
-      <c r="AX5" s="136"/>
-      <c r="AY5" s="136"/>
-      <c r="AZ5" s="136"/>
-      <c r="BA5" s="136"/>
-      <c r="BB5" s="136"/>
-      <c r="BC5" s="136"/>
-      <c r="BD5" s="136"/>
-      <c r="BE5" s="136"/>
-      <c r="BF5" s="136"/>
-      <c r="BG5" s="136"/>
-      <c r="BH5" s="136"/>
-      <c r="BI5" s="136"/>
-      <c r="BJ5" s="136"/>
-      <c r="BK5" s="136"/>
-      <c r="BL5" s="136"/>
-      <c r="BM5" s="136"/>
-      <c r="BN5" s="130" t="s">
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="112"/>
+      <c r="BC5" s="112"/>
+      <c r="BD5" s="112"/>
+      <c r="BE5" s="112"/>
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="112"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="112"/>
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="112"/>
+      <c r="BM5" s="112"/>
+      <c r="BN5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="131" t="s">
+      <c r="BO5" s="109" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1709,108 +1711,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="131"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132" t="s">
+    <row r="6" spans="1:1026" ht="15" thickBot="1">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132" t="s">
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132" t="s">
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132" t="s">
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132" t="s">
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132" t="s">
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="132" t="s">
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="132" t="s">
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="132"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="132"/>
-      <c r="AX6" s="132"/>
-      <c r="AY6" s="132" t="s">
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="132"/>
-      <c r="BA6" s="132"/>
-      <c r="BB6" s="132"/>
-      <c r="BC6" s="132"/>
-      <c r="BD6" s="132" t="s">
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="113"/>
+      <c r="BC6" s="113"/>
+      <c r="BD6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="132"/>
-      <c r="BF6" s="132"/>
-      <c r="BG6" s="132"/>
-      <c r="BH6" s="132"/>
-      <c r="BI6" s="137" t="s">
+      <c r="BE6" s="113"/>
+      <c r="BF6" s="113"/>
+      <c r="BG6" s="113"/>
+      <c r="BH6" s="113"/>
+      <c r="BI6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="137"/>
-      <c r="BK6" s="137"/>
-      <c r="BL6" s="137"/>
-      <c r="BM6" s="137"/>
-      <c r="BN6" s="130"/>
-      <c r="BO6" s="131"/>
+      <c r="BJ6" s="114"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="114"/>
+      <c r="BN6" s="115"/>
+      <c r="BO6" s="109"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2835,12 +2837,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="125"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="123"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3864,14 +3866,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -4895,12 +4897,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="121"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -5924,12 +5926,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="121"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6953,12 +6955,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="121"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -7023,14 +7025,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7095,12 +7097,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="121"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7165,12 +7167,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="121"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7235,12 +7237,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="121"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7305,12 +7307,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="121"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7375,12 +7377,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="121"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7445,12 +7447,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="121"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7521,8 +7523,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="114"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7591,8 +7593,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7661,8 +7663,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7731,8 +7733,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7801,8 +7803,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7867,14 +7869,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="129" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7939,12 +7941,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="111"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="115"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -8009,12 +8011,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="111"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8079,12 +8081,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="111"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="115"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8149,12 +8151,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="112"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="116"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8291,10 +8293,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="117"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="117"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8359,10 +8361,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="118"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8427,10 +8429,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="118"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="118"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8495,10 +8497,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="118"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="118"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8563,10 +8565,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="118"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="118"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8631,10 +8633,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="118"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="118"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8699,10 +8701,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="118"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8767,10 +8769,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="118"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="118"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8835,10 +8837,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="118"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="118"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8903,10 +8905,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="118"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="118"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="135"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8971,10 +8973,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="118"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="118"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="135"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9039,10 +9041,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="118"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="135"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9107,10 +9109,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="118"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="118"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9175,10 +9177,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="118"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="118"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="135"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9243,10 +9245,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="118"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="118"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9311,10 +9313,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="118"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="118"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9379,10 +9381,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="118"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9447,10 +9449,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="118"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="118"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9515,10 +9517,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="118"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="118"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9583,10 +9585,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="118"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="118"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9651,10 +9653,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="118"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="118"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9719,10 +9721,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="118"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9787,10 +9789,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="118"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="118"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9855,10 +9857,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="118"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="118"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9923,10 +9925,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="118"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="118"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9991,10 +9993,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="118"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="118"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10059,10 +10061,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="118"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10122,10 +10124,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="119"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="119"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="136"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10190,7 +10192,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10262,7 +10264,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="108"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10332,7 +10334,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="128" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10404,7 +10406,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="109"/>
+      <c r="B62" s="128"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10472,7 +10474,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="109"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10681,6 +10683,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -10691,37 +10724,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10731,11 +10733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -10752,16 +10754,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="1:1026" ht="45">
+      <c r="B1" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
-    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -10925,84 +10927,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="136"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="136"/>
-      <c r="AG5" s="136"/>
-      <c r="AH5" s="136"/>
-      <c r="AI5" s="136"/>
-      <c r="AJ5" s="136"/>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="136"/>
-      <c r="AM5" s="136"/>
-      <c r="AN5" s="136"/>
-      <c r="AO5" s="136"/>
-      <c r="AP5" s="136"/>
-      <c r="AQ5" s="136"/>
-      <c r="AR5" s="136"/>
-      <c r="AS5" s="136"/>
-      <c r="AT5" s="136"/>
-      <c r="AU5" s="136"/>
-      <c r="AV5" s="136"/>
-      <c r="AW5" s="136"/>
-      <c r="AX5" s="136"/>
-      <c r="AY5" s="136"/>
-      <c r="AZ5" s="136"/>
-      <c r="BA5" s="136"/>
-      <c r="BB5" s="136"/>
-      <c r="BC5" s="136"/>
-      <c r="BD5" s="136"/>
-      <c r="BE5" s="136"/>
-      <c r="BF5" s="136"/>
-      <c r="BG5" s="136"/>
-      <c r="BH5" s="136"/>
-      <c r="BI5" s="136"/>
-      <c r="BJ5" s="136"/>
-      <c r="BK5" s="136"/>
-      <c r="BL5" s="136"/>
-      <c r="BM5" s="136"/>
-      <c r="BN5" s="130" t="s">
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="112"/>
+      <c r="BC5" s="112"/>
+      <c r="BD5" s="112"/>
+      <c r="BE5" s="112"/>
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="112"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="112"/>
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="112"/>
+      <c r="BM5" s="112"/>
+      <c r="BN5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="131" t="s">
+      <c r="BO5" s="109" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -11010,108 +11012,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="131"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132" t="s">
+    <row r="6" spans="1:1026" ht="15" thickBot="1">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132" t="s">
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132" t="s">
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132" t="s">
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132" t="s">
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132" t="s">
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="132" t="s">
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="132" t="s">
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="132"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="132"/>
-      <c r="AX6" s="132"/>
-      <c r="AY6" s="132" t="s">
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="132"/>
-      <c r="BA6" s="132"/>
-      <c r="BB6" s="132"/>
-      <c r="BC6" s="132"/>
-      <c r="BD6" s="132" t="s">
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="113"/>
+      <c r="BC6" s="113"/>
+      <c r="BD6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="132"/>
-      <c r="BF6" s="132"/>
-      <c r="BG6" s="132"/>
-      <c r="BH6" s="132"/>
-      <c r="BI6" s="137" t="s">
+      <c r="BE6" s="113"/>
+      <c r="BF6" s="113"/>
+      <c r="BG6" s="113"/>
+      <c r="BH6" s="113"/>
+      <c r="BI6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="137"/>
-      <c r="BK6" s="137"/>
-      <c r="BL6" s="137"/>
-      <c r="BM6" s="137"/>
-      <c r="BN6" s="130"/>
-      <c r="BO6" s="131"/>
+      <c r="BJ6" s="114"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="114"/>
+      <c r="BN6" s="115"/>
+      <c r="BO6" s="109"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12136,12 +12138,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="125"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="123"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13165,14 +13167,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="106"/>
@@ -14196,12 +14198,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="121"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15225,12 +15227,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="121"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16254,12 +16256,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="121"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16324,14 +16326,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16396,12 +16398,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="121"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16466,12 +16468,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="121"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16536,12 +16538,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="121"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16606,12 +16608,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="121"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16676,12 +16678,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="121"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16746,12 +16748,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="121"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16822,8 +16824,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="114"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16892,8 +16894,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16962,8 +16964,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17032,8 +17034,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17102,8 +17104,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17168,14 +17170,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="129" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17240,12 +17242,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="111"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="115"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17310,12 +17312,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="111"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17380,12 +17382,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="111"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="115"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17450,12 +17452,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="112"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="116"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17592,10 +17594,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="117"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="117"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17660,10 +17662,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="118"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17728,10 +17730,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="118"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="118"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17796,10 +17798,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="118"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="118"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17864,10 +17866,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="118"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="118"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17932,10 +17934,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="118"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="118"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -18000,10 +18002,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="118"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18068,10 +18070,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="118"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="118"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18136,10 +18138,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="118"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="118"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18204,10 +18206,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="118"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="118"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="135"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18272,10 +18274,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="118"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="118"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="135"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18340,10 +18342,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="118"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="135"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18408,10 +18410,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="118"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="118"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18476,10 +18478,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="118"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="118"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="135"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18544,10 +18546,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="118"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="118"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18612,10 +18614,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="118"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="118"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18680,10 +18682,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="118"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18748,10 +18750,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="118"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="118"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18816,10 +18818,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="118"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="118"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18884,10 +18886,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="118"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="118"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18952,10 +18954,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="118"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="118"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -19020,10 +19022,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="118"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19088,10 +19090,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="118"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="118"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19156,10 +19158,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="118"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="118"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19224,10 +19226,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="118"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="118"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19292,10 +19294,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="118"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="118"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19360,10 +19362,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="118"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19423,10 +19425,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="119"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="119"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="136"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19491,7 +19493,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19563,7 +19565,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="108"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19633,7 +19635,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="128" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19705,7 +19707,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="109"/>
+      <c r="B62" s="128"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19773,7 +19775,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="109"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19982,6 +19984,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -19992,37 +20025,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20036,7 +20038,7 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -20053,16 +20055,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="1:1026" ht="45">
+      <c r="B1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
-    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -20226,84 +20228,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="136"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="136"/>
-      <c r="AG5" s="136"/>
-      <c r="AH5" s="136"/>
-      <c r="AI5" s="136"/>
-      <c r="AJ5" s="136"/>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="136"/>
-      <c r="AM5" s="136"/>
-      <c r="AN5" s="136"/>
-      <c r="AO5" s="136"/>
-      <c r="AP5" s="136"/>
-      <c r="AQ5" s="136"/>
-      <c r="AR5" s="136"/>
-      <c r="AS5" s="136"/>
-      <c r="AT5" s="136"/>
-      <c r="AU5" s="136"/>
-      <c r="AV5" s="136"/>
-      <c r="AW5" s="136"/>
-      <c r="AX5" s="136"/>
-      <c r="AY5" s="136"/>
-      <c r="AZ5" s="136"/>
-      <c r="BA5" s="136"/>
-      <c r="BB5" s="136"/>
-      <c r="BC5" s="136"/>
-      <c r="BD5" s="136"/>
-      <c r="BE5" s="136"/>
-      <c r="BF5" s="136"/>
-      <c r="BG5" s="136"/>
-      <c r="BH5" s="136"/>
-      <c r="BI5" s="136"/>
-      <c r="BJ5" s="136"/>
-      <c r="BK5" s="136"/>
-      <c r="BL5" s="136"/>
-      <c r="BM5" s="136"/>
-      <c r="BN5" s="130" t="s">
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="112"/>
+      <c r="BC5" s="112"/>
+      <c r="BD5" s="112"/>
+      <c r="BE5" s="112"/>
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="112"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="112"/>
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="112"/>
+      <c r="BM5" s="112"/>
+      <c r="BN5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="131" t="s">
+      <c r="BO5" s="109" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20311,108 +20313,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="131"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132" t="s">
+    <row r="6" spans="1:1026" ht="15" thickBot="1">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132" t="s">
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132" t="s">
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132" t="s">
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132" t="s">
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132" t="s">
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="132" t="s">
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="132" t="s">
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="132"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="132"/>
-      <c r="AX6" s="132"/>
-      <c r="AY6" s="132" t="s">
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="132"/>
-      <c r="BA6" s="132"/>
-      <c r="BB6" s="132"/>
-      <c r="BC6" s="132"/>
-      <c r="BD6" s="132" t="s">
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="113"/>
+      <c r="BC6" s="113"/>
+      <c r="BD6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="132"/>
-      <c r="BF6" s="132"/>
-      <c r="BG6" s="132"/>
-      <c r="BH6" s="132"/>
-      <c r="BI6" s="137" t="s">
+      <c r="BE6" s="113"/>
+      <c r="BF6" s="113"/>
+      <c r="BG6" s="113"/>
+      <c r="BH6" s="113"/>
+      <c r="BI6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="137"/>
-      <c r="BK6" s="137"/>
-      <c r="BL6" s="137"/>
-      <c r="BM6" s="137"/>
-      <c r="BN6" s="130"/>
-      <c r="BO6" s="131"/>
+      <c r="BJ6" s="114"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="114"/>
+      <c r="BN6" s="115"/>
+      <c r="BO6" s="109"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21437,12 +21439,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="125"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="123"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22466,14 +22468,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23497,12 +23499,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="121"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24526,12 +24528,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="121"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25555,12 +25557,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="121"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25625,14 +25627,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25697,12 +25699,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="121"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25767,12 +25769,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="121"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25837,12 +25839,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="121"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25907,12 +25909,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="121"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25977,12 +25979,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="121"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26047,12 +26049,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="121"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26123,8 +26125,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="114"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26193,8 +26195,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26263,8 +26265,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26333,8 +26335,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26403,8 +26405,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26469,14 +26471,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="129" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26541,12 +26543,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="111"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="115"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26611,12 +26613,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="111"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26681,12 +26683,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="111"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="115"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26751,12 +26753,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="112"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="116"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26893,10 +26895,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="117"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="117"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26961,10 +26963,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="118"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27029,10 +27031,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="118"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="118"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27097,10 +27099,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="118"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="118"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27165,10 +27167,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="118"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="118"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27233,10 +27235,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="118"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="118"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27301,10 +27303,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="118"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27369,10 +27371,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="118"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="118"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27437,10 +27439,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="118"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="118"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27505,10 +27507,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="118"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="118"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="135"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27573,10 +27575,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="118"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="118"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="135"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27641,10 +27643,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="118"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="135"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27709,10 +27711,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="118"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="118"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27777,10 +27779,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="118"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="118"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="135"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27845,10 +27847,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="118"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="118"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27913,10 +27915,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="118"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="118"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27981,10 +27983,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="118"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28049,10 +28051,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="118"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="118"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28117,10 +28119,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="118"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="118"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28185,10 +28187,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="118"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="118"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28253,10 +28255,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="118"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="118"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28321,10 +28323,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="118"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28389,10 +28391,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="118"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="118"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28457,10 +28459,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="118"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="118"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28525,10 +28527,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="118"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="118"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28593,10 +28595,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="118"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="118"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28661,10 +28663,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="118"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28724,10 +28726,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="119"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="119"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="136"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28792,7 +28794,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28864,7 +28866,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="108"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28934,7 +28936,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="128" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -29006,7 +29008,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="109"/>
+      <c r="B62" s="128"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29074,7 +29076,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="109"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29283,6 +29285,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -29293,37 +29326,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29337,7 +29339,7 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -29354,16 +29356,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="1:1026" ht="45">
+      <c r="B1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
-    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -29527,84 +29529,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="136"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="136"/>
-      <c r="AG5" s="136"/>
-      <c r="AH5" s="136"/>
-      <c r="AI5" s="136"/>
-      <c r="AJ5" s="136"/>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="136"/>
-      <c r="AM5" s="136"/>
-      <c r="AN5" s="136"/>
-      <c r="AO5" s="136"/>
-      <c r="AP5" s="136"/>
-      <c r="AQ5" s="136"/>
-      <c r="AR5" s="136"/>
-      <c r="AS5" s="136"/>
-      <c r="AT5" s="136"/>
-      <c r="AU5" s="136"/>
-      <c r="AV5" s="136"/>
-      <c r="AW5" s="136"/>
-      <c r="AX5" s="136"/>
-      <c r="AY5" s="136"/>
-      <c r="AZ5" s="136"/>
-      <c r="BA5" s="136"/>
-      <c r="BB5" s="136"/>
-      <c r="BC5" s="136"/>
-      <c r="BD5" s="136"/>
-      <c r="BE5" s="136"/>
-      <c r="BF5" s="136"/>
-      <c r="BG5" s="136"/>
-      <c r="BH5" s="136"/>
-      <c r="BI5" s="136"/>
-      <c r="BJ5" s="136"/>
-      <c r="BK5" s="136"/>
-      <c r="BL5" s="136"/>
-      <c r="BM5" s="136"/>
-      <c r="BN5" s="130" t="s">
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="112"/>
+      <c r="BC5" s="112"/>
+      <c r="BD5" s="112"/>
+      <c r="BE5" s="112"/>
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="112"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="112"/>
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="112"/>
+      <c r="BM5" s="112"/>
+      <c r="BN5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="131" t="s">
+      <c r="BO5" s="109" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29612,108 +29614,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="131"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132" t="s">
+    <row r="6" spans="1:1026" ht="15" thickBot="1">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132" t="s">
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132" t="s">
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132" t="s">
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132" t="s">
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132" t="s">
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="132" t="s">
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="132" t="s">
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="132"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="132"/>
-      <c r="AX6" s="132"/>
-      <c r="AY6" s="132" t="s">
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="132"/>
-      <c r="BA6" s="132"/>
-      <c r="BB6" s="132"/>
-      <c r="BC6" s="132"/>
-      <c r="BD6" s="132" t="s">
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="113"/>
+      <c r="BC6" s="113"/>
+      <c r="BD6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="132"/>
-      <c r="BF6" s="132"/>
-      <c r="BG6" s="132"/>
-      <c r="BH6" s="132"/>
-      <c r="BI6" s="137" t="s">
+      <c r="BE6" s="113"/>
+      <c r="BF6" s="113"/>
+      <c r="BG6" s="113"/>
+      <c r="BH6" s="113"/>
+      <c r="BI6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="137"/>
-      <c r="BK6" s="137"/>
-      <c r="BL6" s="137"/>
-      <c r="BM6" s="137"/>
-      <c r="BN6" s="130"/>
-      <c r="BO6" s="131"/>
+      <c r="BJ6" s="114"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="114"/>
+      <c r="BN6" s="115"/>
+      <c r="BO6" s="109"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30738,12 +30740,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="125"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="123"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31767,14 +31769,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32798,12 +32800,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="121"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33827,12 +33829,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="121"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34856,12 +34858,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="121"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34926,14 +34928,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -34998,12 +35000,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="121"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35068,12 +35070,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="121"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35138,12 +35140,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="121"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35208,12 +35210,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="121"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35278,12 +35280,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="121"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35348,12 +35350,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="121"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35424,8 +35426,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="114"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35494,8 +35496,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35564,8 +35566,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35634,8 +35636,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35704,8 +35706,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35770,14 +35772,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="129" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35842,12 +35844,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="111"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="115"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35912,12 +35914,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="111"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35982,12 +35984,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="111"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="115"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36052,12 +36054,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="112"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="116"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36194,10 +36196,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="117"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="117"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36262,10 +36264,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="118"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36330,10 +36332,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="118"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="118"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36398,10 +36400,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="118"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="118"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36466,10 +36468,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="118"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="118"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36534,10 +36536,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="118"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="118"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36602,10 +36604,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="118"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36670,10 +36672,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="118"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="118"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36738,10 +36740,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="118"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="118"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36806,10 +36808,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="118"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="118"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="135"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36874,10 +36876,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="118"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="118"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="135"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36942,10 +36944,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="118"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="135"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -37010,10 +37012,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="118"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="118"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37078,10 +37080,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="118"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="118"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="135"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37146,10 +37148,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="118"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="118"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37214,10 +37216,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="118"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="118"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37282,10 +37284,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="118"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37350,10 +37352,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="118"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="118"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37418,10 +37420,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="118"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="118"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37486,10 +37488,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="118"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="118"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37554,10 +37556,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="118"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="118"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37622,10 +37624,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="118"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37690,10 +37692,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="118"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="118"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37758,10 +37760,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="118"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="118"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37826,10 +37828,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="118"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="118"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37894,10 +37896,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="118"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="118"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37962,10 +37964,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="118"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -38025,10 +38027,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="119"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="119"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="136"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38093,7 +38095,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38165,7 +38167,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="108"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38235,7 +38237,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="128" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38307,7 +38309,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="109"/>
+      <c r="B62" s="128"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38375,7 +38377,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="109"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38584,6 +38586,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -38594,37 +38627,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38638,7 +38640,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -38655,16 +38657,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="1:1026" ht="45">
+      <c r="B1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
-    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -38828,84 +38830,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="136"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="136"/>
-      <c r="AG5" s="136"/>
-      <c r="AH5" s="136"/>
-      <c r="AI5" s="136"/>
-      <c r="AJ5" s="136"/>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="136"/>
-      <c r="AM5" s="136"/>
-      <c r="AN5" s="136"/>
-      <c r="AO5" s="136"/>
-      <c r="AP5" s="136"/>
-      <c r="AQ5" s="136"/>
-      <c r="AR5" s="136"/>
-      <c r="AS5" s="136"/>
-      <c r="AT5" s="136"/>
-      <c r="AU5" s="136"/>
-      <c r="AV5" s="136"/>
-      <c r="AW5" s="136"/>
-      <c r="AX5" s="136"/>
-      <c r="AY5" s="136"/>
-      <c r="AZ5" s="136"/>
-      <c r="BA5" s="136"/>
-      <c r="BB5" s="136"/>
-      <c r="BC5" s="136"/>
-      <c r="BD5" s="136"/>
-      <c r="BE5" s="136"/>
-      <c r="BF5" s="136"/>
-      <c r="BG5" s="136"/>
-      <c r="BH5" s="136"/>
-      <c r="BI5" s="136"/>
-      <c r="BJ5" s="136"/>
-      <c r="BK5" s="136"/>
-      <c r="BL5" s="136"/>
-      <c r="BM5" s="136"/>
-      <c r="BN5" s="130" t="s">
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="112"/>
+      <c r="BC5" s="112"/>
+      <c r="BD5" s="112"/>
+      <c r="BE5" s="112"/>
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="112"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="112"/>
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="112"/>
+      <c r="BM5" s="112"/>
+      <c r="BN5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="131" t="s">
+      <c r="BO5" s="109" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38913,108 +38915,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="131"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132" t="s">
+    <row r="6" spans="1:1026" ht="15" thickBot="1">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132" t="s">
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132" t="s">
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132" t="s">
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132" t="s">
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132" t="s">
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="132" t="s">
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="132" t="s">
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="132"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="132"/>
-      <c r="AX6" s="132"/>
-      <c r="AY6" s="132" t="s">
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="132"/>
-      <c r="BA6" s="132"/>
-      <c r="BB6" s="132"/>
-      <c r="BC6" s="132"/>
-      <c r="BD6" s="132" t="s">
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="113"/>
+      <c r="BC6" s="113"/>
+      <c r="BD6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="132"/>
-      <c r="BF6" s="132"/>
-      <c r="BG6" s="132"/>
-      <c r="BH6" s="132"/>
-      <c r="BI6" s="137" t="s">
+      <c r="BE6" s="113"/>
+      <c r="BF6" s="113"/>
+      <c r="BG6" s="113"/>
+      <c r="BH6" s="113"/>
+      <c r="BI6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="137"/>
-      <c r="BK6" s="137"/>
-      <c r="BL6" s="137"/>
-      <c r="BM6" s="137"/>
-      <c r="BN6" s="130"/>
-      <c r="BO6" s="131"/>
+      <c r="BJ6" s="114"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="114"/>
+      <c r="BN6" s="115"/>
+      <c r="BO6" s="109"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -40039,12 +40041,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="125"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="123"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="99"/>
       <c r="G8" s="100"/>
       <c r="H8" s="91"/>
@@ -41068,14 +41070,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -42099,12 +42101,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="121"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="77"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -43128,12 +43130,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="121"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44157,12 +44159,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="121"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -44227,14 +44229,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44299,12 +44301,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="121"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44369,12 +44371,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="121"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44439,12 +44441,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="121"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44509,12 +44511,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="121"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44579,12 +44581,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="121"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44649,12 +44651,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="121"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44725,8 +44727,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="114"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44795,8 +44797,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44865,8 +44867,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44935,8 +44937,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -45005,8 +45007,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45071,14 +45073,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="129" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45143,12 +45145,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="111"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="115"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45213,12 +45215,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="111"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45283,12 +45285,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="111"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="115"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45353,12 +45355,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="112"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="116"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45495,10 +45497,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="117"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="117"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45563,10 +45565,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="118"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45631,10 +45633,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="118"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="118"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45699,10 +45701,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="118"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="118"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45767,10 +45769,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="118"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="118"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45835,10 +45837,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="118"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="118"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45903,10 +45905,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="118"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45971,10 +45973,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="118"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="118"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -46039,10 +46041,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="118"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="118"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46107,10 +46109,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="118"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="118"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="135"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46175,10 +46177,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="118"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="118"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="135"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46243,10 +46245,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="118"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="135"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46311,10 +46313,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="118"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="118"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46379,10 +46381,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="118"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="118"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="135"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46447,10 +46449,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="118"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="118"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46515,10 +46517,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="118"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="118"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46583,10 +46585,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="118"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46651,10 +46653,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="118"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="118"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46719,10 +46721,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="118"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="118"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46787,10 +46789,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="118"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="118"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46855,10 +46857,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="118"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="118"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46923,10 +46925,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="118"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46991,10 +46993,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="118"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="118"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47059,10 +47061,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="118"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="118"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47127,10 +47129,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="118"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="118"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47195,10 +47197,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="118"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="118"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47263,10 +47265,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="118"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47326,10 +47328,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="119"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="119"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="136"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47394,7 +47396,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47466,7 +47468,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="108"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47536,7 +47538,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="128" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47608,7 +47610,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="109"/>
+      <c r="B62" s="128"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47676,7 +47678,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="109"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47885,6 +47887,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -47895,37 +47928,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47936,11 +47938,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -47957,16 +47959,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="1:1026" ht="45">
+      <c r="B1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
-    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -48130,84 +48132,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="136"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="136"/>
-      <c r="AG5" s="136"/>
-      <c r="AH5" s="136"/>
-      <c r="AI5" s="136"/>
-      <c r="AJ5" s="136"/>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="136"/>
-      <c r="AM5" s="136"/>
-      <c r="AN5" s="136"/>
-      <c r="AO5" s="136"/>
-      <c r="AP5" s="136"/>
-      <c r="AQ5" s="136"/>
-      <c r="AR5" s="136"/>
-      <c r="AS5" s="136"/>
-      <c r="AT5" s="136"/>
-      <c r="AU5" s="136"/>
-      <c r="AV5" s="136"/>
-      <c r="AW5" s="136"/>
-      <c r="AX5" s="136"/>
-      <c r="AY5" s="136"/>
-      <c r="AZ5" s="136"/>
-      <c r="BA5" s="136"/>
-      <c r="BB5" s="136"/>
-      <c r="BC5" s="136"/>
-      <c r="BD5" s="136"/>
-      <c r="BE5" s="136"/>
-      <c r="BF5" s="136"/>
-      <c r="BG5" s="136"/>
-      <c r="BH5" s="136"/>
-      <c r="BI5" s="136"/>
-      <c r="BJ5" s="136"/>
-      <c r="BK5" s="136"/>
-      <c r="BL5" s="136"/>
-      <c r="BM5" s="136"/>
-      <c r="BN5" s="130" t="s">
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="112"/>
+      <c r="BC5" s="112"/>
+      <c r="BD5" s="112"/>
+      <c r="BE5" s="112"/>
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="112"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="112"/>
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="112"/>
+      <c r="BM5" s="112"/>
+      <c r="BN5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="131" t="s">
+      <c r="BO5" s="109" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48215,108 +48217,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="131"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132" t="s">
+    <row r="6" spans="1:1026" ht="15" thickBot="1">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132" t="s">
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132" t="s">
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132" t="s">
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132" t="s">
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132" t="s">
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="132" t="s">
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="132" t="s">
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="132"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="132"/>
-      <c r="AX6" s="132"/>
-      <c r="AY6" s="132" t="s">
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="132"/>
-      <c r="BA6" s="132"/>
-      <c r="BB6" s="132"/>
-      <c r="BC6" s="132"/>
-      <c r="BD6" s="132" t="s">
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="113"/>
+      <c r="BC6" s="113"/>
+      <c r="BD6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="132"/>
-      <c r="BF6" s="132"/>
-      <c r="BG6" s="132"/>
-      <c r="BH6" s="132"/>
-      <c r="BI6" s="137" t="s">
+      <c r="BE6" s="113"/>
+      <c r="BF6" s="113"/>
+      <c r="BG6" s="113"/>
+      <c r="BH6" s="113"/>
+      <c r="BI6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="137"/>
-      <c r="BK6" s="137"/>
-      <c r="BL6" s="137"/>
-      <c r="BM6" s="137"/>
-      <c r="BN6" s="130"/>
-      <c r="BO6" s="131"/>
+      <c r="BJ6" s="114"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="114"/>
+      <c r="BN6" s="115"/>
+      <c r="BO6" s="109"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49341,12 +49343,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="125"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="123"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50370,17 +50372,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="H9" s="138"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -51401,12 +51403,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="121"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -51414,7 +51416,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="107"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -52430,12 +52432,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="121"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53459,12 +53461,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="121"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53529,14 +53531,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53601,12 +53603,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="121"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53671,12 +53673,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="121"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53741,12 +53743,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="121"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53811,12 +53813,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="121"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53881,12 +53883,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="121"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53951,12 +53953,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="121"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -54027,8 +54029,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="114"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54097,8 +54099,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54167,8 +54169,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54237,8 +54239,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54307,8 +54309,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54373,14 +54375,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="129" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54445,12 +54447,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="111"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="115"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54515,12 +54517,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="111"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54585,12 +54587,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="111"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="115"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54655,12 +54657,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="112"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="116"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54797,10 +54799,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="117"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="117"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54865,10 +54867,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="118"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54933,10 +54935,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="118"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="118"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -55001,10 +55003,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="118"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="118"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55069,10 +55071,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="118"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="118"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55137,10 +55139,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="118"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="118"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55205,10 +55207,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="118"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55273,10 +55275,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="118"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="118"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55341,10 +55343,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="118"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="118"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55409,10 +55411,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="118"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="118"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="135"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55477,10 +55479,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="118"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="118"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="135"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55545,10 +55547,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="118"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="135"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55613,10 +55615,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="118"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="118"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55681,10 +55683,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="118"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="118"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="135"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55749,10 +55751,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="118"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="118"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55817,10 +55819,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="118"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="118"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55885,10 +55887,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="118"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55953,10 +55955,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="118"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="118"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -56021,10 +56023,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="118"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="118"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56089,10 +56091,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="118"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="118"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56157,10 +56159,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="118"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="118"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56225,10 +56227,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="118"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56293,10 +56295,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="118"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="118"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56361,10 +56363,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="118"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="118"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56429,10 +56431,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="118"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="118"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56497,10 +56499,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="118"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="118"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56565,10 +56567,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="118"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56628,10 +56630,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="119"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="119"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="136"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56696,7 +56698,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56768,7 +56770,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="108"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56838,7 +56840,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="128" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56910,7 +56912,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="109"/>
+      <c r="B62" s="128"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56978,7 +56980,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="109"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57187,6 +57189,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -57197,39 +57230,9 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -57238,10 +57241,10 @@
   <dimension ref="A1:AML65"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="E20" sqref="E20:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -57258,16 +57261,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="1:1026" ht="45">
+      <c r="B1" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
-    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -57431,84 +57434,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="136"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="136"/>
-      <c r="AG5" s="136"/>
-      <c r="AH5" s="136"/>
-      <c r="AI5" s="136"/>
-      <c r="AJ5" s="136"/>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="136"/>
-      <c r="AM5" s="136"/>
-      <c r="AN5" s="136"/>
-      <c r="AO5" s="136"/>
-      <c r="AP5" s="136"/>
-      <c r="AQ5" s="136"/>
-      <c r="AR5" s="136"/>
-      <c r="AS5" s="136"/>
-      <c r="AT5" s="136"/>
-      <c r="AU5" s="136"/>
-      <c r="AV5" s="136"/>
-      <c r="AW5" s="136"/>
-      <c r="AX5" s="136"/>
-      <c r="AY5" s="136"/>
-      <c r="AZ5" s="136"/>
-      <c r="BA5" s="136"/>
-      <c r="BB5" s="136"/>
-      <c r="BC5" s="136"/>
-      <c r="BD5" s="136"/>
-      <c r="BE5" s="136"/>
-      <c r="BF5" s="136"/>
-      <c r="BG5" s="136"/>
-      <c r="BH5" s="136"/>
-      <c r="BI5" s="136"/>
-      <c r="BJ5" s="136"/>
-      <c r="BK5" s="136"/>
-      <c r="BL5" s="136"/>
-      <c r="BM5" s="136"/>
-      <c r="BN5" s="130" t="s">
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="112"/>
+      <c r="BC5" s="112"/>
+      <c r="BD5" s="112"/>
+      <c r="BE5" s="112"/>
+      <c r="BF5" s="112"/>
+      <c r="BG5" s="112"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="112"/>
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="112"/>
+      <c r="BM5" s="112"/>
+      <c r="BN5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="131" t="s">
+      <c r="BO5" s="109" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57516,108 +57519,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="131"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132" t="s">
+    <row r="6" spans="1:1026" ht="15" thickBot="1">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132" t="s">
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132" t="s">
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132" t="s">
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132" t="s">
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132" t="s">
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="132" t="s">
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="132" t="s">
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="132"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="132"/>
-      <c r="AX6" s="132"/>
-      <c r="AY6" s="132" t="s">
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="132"/>
-      <c r="BA6" s="132"/>
-      <c r="BB6" s="132"/>
-      <c r="BC6" s="132"/>
-      <c r="BD6" s="132" t="s">
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="113"/>
+      <c r="BC6" s="113"/>
+      <c r="BD6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="132"/>
-      <c r="BF6" s="132"/>
-      <c r="BG6" s="132"/>
-      <c r="BH6" s="132"/>
-      <c r="BI6" s="137" t="s">
+      <c r="BE6" s="113"/>
+      <c r="BF6" s="113"/>
+      <c r="BG6" s="113"/>
+      <c r="BH6" s="113"/>
+      <c r="BI6" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="137"/>
-      <c r="BK6" s="137"/>
-      <c r="BL6" s="137"/>
-      <c r="BM6" s="137"/>
-      <c r="BN6" s="130"/>
-      <c r="BO6" s="131"/>
+      <c r="BJ6" s="114"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="114"/>
+      <c r="BN6" s="115"/>
+      <c r="BO6" s="109"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="116" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58642,12 +58645,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="125"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="123"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59671,14 +59674,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="106"/>
@@ -60702,12 +60705,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="121"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -61731,12 +61734,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="121"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="128"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62760,12 +62763,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="121"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62830,14 +62833,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62902,12 +62905,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="121"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62972,12 +62975,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="121"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63042,12 +63045,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="121"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63112,12 +63115,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="121"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63182,12 +63185,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="121"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63252,12 +63255,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="121"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63328,8 +63331,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="114"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63398,8 +63401,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63468,8 +63471,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63538,8 +63541,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63608,8 +63611,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63674,14 +63677,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="129" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63746,12 +63749,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="111"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="115"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63816,12 +63819,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="111"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63886,12 +63889,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="111"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="115"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63956,12 +63959,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="112"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="116"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64098,10 +64101,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="117"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="117"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64166,10 +64169,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="118"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64234,10 +64237,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="118"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="118"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64302,10 +64305,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="118"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="118"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64370,10 +64373,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="118"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="118"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64438,10 +64441,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="118"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="118"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64506,10 +64509,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="118"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64574,10 +64577,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="118"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="118"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64642,10 +64645,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="118"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="118"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64710,10 +64713,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="118"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="118"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="135"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64778,10 +64781,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="118"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="118"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="135"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64846,10 +64849,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="118"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="135"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64914,10 +64917,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="118"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="118"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64982,10 +64985,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="118"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="118"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="135"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65050,10 +65053,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="118"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="118"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65118,10 +65121,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="118"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="118"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65186,10 +65189,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="118"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="135"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65254,10 +65257,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="118"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="118"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="135"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65322,10 +65325,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="118"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="118"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65390,10 +65393,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="118"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="118"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="135"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65458,10 +65461,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="118"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="118"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="135"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65526,10 +65529,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="118"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="135"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65594,10 +65597,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="118"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="118"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="135"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65662,10 +65665,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="118"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="118"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="135"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65730,10 +65733,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="118"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="118"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65798,10 +65801,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="118"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="118"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="135"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65866,10 +65869,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="118"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="135"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65929,10 +65932,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="119"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="119"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="136"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -65997,7 +66000,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="127" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66069,7 +66072,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="108"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66139,7 +66142,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="128" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66211,7 +66214,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="109"/>
+      <c r="B62" s="128"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66279,7 +66282,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="109"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66488,22 +66491,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66514,21 +66516,22 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Progress.xlsx
+++ b/QC_QNU_Progress.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QC_Training_2019_01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="690" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="690"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -231,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -365,7 +370,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,7 +881,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1055,63 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,6 +1085,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1145,7 +1106,59 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1422,7 +1435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1432,11 +1445,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AV30" sqref="AV30"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -1453,16 +1466,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="45">
-      <c r="B1" s="108" t="s">
+    <row r="1" spans="1:1026" ht="43.5">
+      <c r="B1" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
-    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1626,84 +1639,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="115" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="109" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1711,108 +1724,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="15" thickBot="1">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="113" t="s">
+    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="113" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="113"/>
-      <c r="BB6" s="113"/>
-      <c r="BC6" s="113"/>
-      <c r="BD6" s="113" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="113"/>
-      <c r="BF6" s="113"/>
-      <c r="BG6" s="113"/>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="114" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="114"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="114"/>
-      <c r="BM6" s="114"/>
-      <c r="BN6" s="115"/>
-      <c r="BO6" s="109"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2837,12 +2850,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3866,17 +3879,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="H9" s="139"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -4897,12 +4910,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -4910,7 +4923,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="140"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -5926,12 +5939,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6955,12 +6968,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -7025,14 +7038,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="118"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7097,12 +7110,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7167,12 +7180,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="118"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7237,12 +7250,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="118"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7307,12 +7320,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7377,12 +7390,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7447,12 +7460,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7517,14 +7530,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7589,12 +7602,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="124"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7659,12 +7672,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="124"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7729,12 +7742,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="124"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7799,12 +7812,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="124"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7869,14 +7882,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="125"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7941,12 +7954,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="130"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="126"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -8011,12 +8024,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="130"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="126"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8081,12 +8094,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="130"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="126"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8151,12 +8164,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="131"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8293,10 +8306,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="134"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="134"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8361,10 +8374,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="135"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="135"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8429,10 +8442,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="135"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="135"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8497,10 +8510,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="135"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="135"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8565,10 +8578,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="135"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="135"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8633,10 +8646,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="135"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="135"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8701,10 +8714,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="135"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="135"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8769,10 +8782,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="135"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="135"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8837,10 +8850,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="135"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="135"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8905,10 +8918,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="135"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="135"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8973,10 +8986,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="135"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="135"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9041,10 +9054,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="135"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="135"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9109,10 +9122,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="135"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="135"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9177,10 +9190,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="135"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="135"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9245,10 +9258,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="135"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="135"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9313,10 +9326,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="135"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="135"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9381,10 +9394,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="135"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="135"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9449,10 +9462,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="135"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="135"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9517,10 +9530,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="135"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="135"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9585,10 +9598,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="135"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="135"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9653,10 +9666,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="135"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="135"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9721,10 +9734,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="135"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="135"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9789,10 +9802,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="135"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="135"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9857,10 +9870,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="135"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="135"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9925,10 +9938,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="135"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="135"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -9993,10 +10006,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="135"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="135"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10061,10 +10074,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="135"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="135"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10124,10 +10137,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="136"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="136"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10192,7 +10205,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10264,7 +10277,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="127"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10334,7 +10347,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10406,7 +10419,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="128"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10474,7 +10487,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="128"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10683,27 +10696,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -10714,16 +10716,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10737,7 +10750,7 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -10754,16 +10767,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="45">
-      <c r="B1" s="108" t="s">
+    <row r="1" spans="1:1026" ht="43.5">
+      <c r="B1" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
-    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -10927,84 +10940,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="115" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="109" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -11012,108 +11025,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="15" thickBot="1">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="113" t="s">
+    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="113" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="113"/>
-      <c r="BB6" s="113"/>
-      <c r="BC6" s="113"/>
-      <c r="BD6" s="113" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="113"/>
-      <c r="BF6" s="113"/>
-      <c r="BG6" s="113"/>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="114" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="114"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="114"/>
-      <c r="BM6" s="114"/>
-      <c r="BN6" s="115"/>
-      <c r="BO6" s="109"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12138,12 +12151,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13167,14 +13180,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="106"/>
@@ -14198,12 +14211,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15227,12 +15240,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16256,12 +16269,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16326,14 +16339,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="118"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16398,12 +16411,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16468,12 +16481,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="118"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16538,12 +16551,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="118"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16608,12 +16621,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16678,12 +16691,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16748,12 +16761,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16818,14 +16831,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16890,12 +16903,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="124"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16960,12 +16973,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="124"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17030,12 +17043,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="124"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17100,12 +17113,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="124"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17170,14 +17183,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="125"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17242,12 +17255,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="130"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="126"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17312,12 +17325,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="130"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="126"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17382,12 +17395,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="130"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="126"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17452,12 +17465,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="131"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17594,10 +17607,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="134"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="134"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17662,10 +17675,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="135"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="135"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17730,10 +17743,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="135"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="135"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17798,10 +17811,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="135"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="135"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17866,10 +17879,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="135"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="135"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17934,10 +17947,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="135"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="135"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -18002,10 +18015,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="135"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="135"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18070,10 +18083,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="135"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="135"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18138,10 +18151,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="135"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="135"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18206,10 +18219,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="135"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="135"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18274,10 +18287,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="135"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="135"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18342,10 +18355,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="135"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="135"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18410,10 +18423,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="135"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="135"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18478,10 +18491,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="135"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="135"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18546,10 +18559,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="135"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="135"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18614,10 +18627,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="135"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="135"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18682,10 +18695,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="135"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="135"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18750,10 +18763,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="135"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="135"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18818,10 +18831,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="135"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="135"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18886,10 +18899,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="135"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="135"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18954,10 +18967,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="135"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="135"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -19022,10 +19035,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="135"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="135"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19090,10 +19103,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="135"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="135"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19158,10 +19171,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="135"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="135"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19226,10 +19239,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="135"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="135"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19294,10 +19307,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="135"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="135"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19362,10 +19375,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="135"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="135"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19425,10 +19438,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="136"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="136"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19493,7 +19506,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19565,7 +19578,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="127"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19635,7 +19648,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19707,7 +19720,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="128"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19775,7 +19788,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="128"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19984,27 +19997,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -20015,16 +20017,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20038,7 +20051,7 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -20055,16 +20068,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="45">
-      <c r="B1" s="108" t="s">
+    <row r="1" spans="1:1026" ht="43.5">
+      <c r="B1" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
-    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -20228,84 +20241,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="115" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="109" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20313,108 +20326,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="15" thickBot="1">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="113" t="s">
+    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="113" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="113"/>
-      <c r="BB6" s="113"/>
-      <c r="BC6" s="113"/>
-      <c r="BD6" s="113" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="113"/>
-      <c r="BF6" s="113"/>
-      <c r="BG6" s="113"/>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="114" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="114"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="114"/>
-      <c r="BM6" s="114"/>
-      <c r="BN6" s="115"/>
-      <c r="BO6" s="109"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21439,12 +21452,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22468,14 +22481,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23499,12 +23512,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24528,12 +24541,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25557,12 +25570,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25627,14 +25640,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="118"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25699,12 +25712,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25769,12 +25782,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="118"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25839,12 +25852,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="118"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25909,12 +25922,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25979,12 +25992,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26049,12 +26062,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26119,14 +26132,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26191,12 +26204,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="124"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26261,12 +26274,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="124"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26331,12 +26344,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="124"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26401,12 +26414,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="124"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26471,14 +26484,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="125"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26543,12 +26556,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="130"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="126"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26613,12 +26626,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="130"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="126"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26683,12 +26696,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="130"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="126"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26753,12 +26766,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="131"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26895,10 +26908,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="134"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="134"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26963,10 +26976,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="135"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="135"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27031,10 +27044,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="135"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="135"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27099,10 +27112,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="135"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="135"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27167,10 +27180,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="135"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="135"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27235,10 +27248,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="135"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="135"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27303,10 +27316,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="135"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="135"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27371,10 +27384,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="135"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="135"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27439,10 +27452,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="135"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="135"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27507,10 +27520,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="135"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="135"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27575,10 +27588,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="135"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="135"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27643,10 +27656,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="135"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="135"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27711,10 +27724,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="135"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="135"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27779,10 +27792,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="135"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="135"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27847,10 +27860,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="135"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="135"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27915,10 +27928,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="135"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="135"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27983,10 +27996,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="135"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="135"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28051,10 +28064,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="135"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="135"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28119,10 +28132,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="135"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="135"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28187,10 +28200,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="135"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="135"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28255,10 +28268,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="135"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="135"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28323,10 +28336,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="135"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="135"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28391,10 +28404,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="135"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="135"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28459,10 +28472,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="135"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="135"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28527,10 +28540,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="135"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="135"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28595,10 +28608,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="135"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="135"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28663,10 +28676,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="135"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="135"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28726,10 +28739,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="136"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="136"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28794,7 +28807,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28866,7 +28879,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="127"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28936,7 +28949,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -29008,7 +29021,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="128"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29076,7 +29089,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="128"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29285,27 +29298,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -29316,16 +29318,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29339,7 +29352,7 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -29356,16 +29369,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="45">
-      <c r="B1" s="108" t="s">
+    <row r="1" spans="1:1026" ht="43.5">
+      <c r="B1" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
-    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -29529,84 +29542,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="115" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="109" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29614,108 +29627,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="15" thickBot="1">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="113" t="s">
+    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="113" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="113"/>
-      <c r="BB6" s="113"/>
-      <c r="BC6" s="113"/>
-      <c r="BD6" s="113" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="113"/>
-      <c r="BF6" s="113"/>
-      <c r="BG6" s="113"/>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="114" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="114"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="114"/>
-      <c r="BM6" s="114"/>
-      <c r="BN6" s="115"/>
-      <c r="BO6" s="109"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30740,12 +30753,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31769,14 +31782,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -32800,12 +32813,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -33829,12 +33842,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34858,12 +34871,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34928,14 +34941,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="118"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -35000,12 +35013,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35070,12 +35083,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="118"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35140,12 +35153,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="118"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35210,12 +35223,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35280,12 +35293,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35350,12 +35363,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35420,14 +35433,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35492,12 +35505,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="124"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35562,12 +35575,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="124"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35632,12 +35645,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="124"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35702,12 +35715,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="124"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35772,14 +35785,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="125"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35844,12 +35857,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="130"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="126"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35914,12 +35927,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="130"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="126"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35984,12 +35997,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="130"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="126"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36054,12 +36067,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="131"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36196,10 +36209,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="134"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="134"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36264,10 +36277,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="135"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="135"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36332,10 +36345,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="135"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="135"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36400,10 +36413,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="135"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="135"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36468,10 +36481,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="135"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="135"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36536,10 +36549,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="135"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="135"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36604,10 +36617,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="135"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="135"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36672,10 +36685,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="135"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="135"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36740,10 +36753,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="135"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="135"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36808,10 +36821,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="135"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="135"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36876,10 +36889,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="135"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="135"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36944,10 +36957,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="135"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="135"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -37012,10 +37025,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="135"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="135"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37080,10 +37093,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="135"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="135"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37148,10 +37161,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="135"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="135"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37216,10 +37229,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="135"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="135"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37284,10 +37297,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="135"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="135"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37352,10 +37365,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="135"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="135"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37420,10 +37433,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="135"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="135"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37488,10 +37501,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="135"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="135"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37556,10 +37569,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="135"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="135"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37624,10 +37637,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="135"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="135"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37692,10 +37705,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="135"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="135"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37760,10 +37773,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="135"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="135"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37828,10 +37841,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="135"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="135"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37896,10 +37909,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="135"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="135"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37964,10 +37977,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="135"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="135"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -38027,10 +38040,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="136"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="136"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38095,7 +38108,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38167,7 +38180,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="127"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38237,7 +38250,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38309,7 +38322,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="128"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38377,7 +38390,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="128"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38586,27 +38599,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -38617,16 +38619,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38640,7 +38653,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -38657,16 +38670,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="45">
-      <c r="B1" s="108" t="s">
+    <row r="1" spans="1:1026" ht="43.5">
+      <c r="B1" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
-    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -38830,84 +38843,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="115" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="109" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38915,108 +38928,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="15" thickBot="1">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="113" t="s">
+    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="113" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="113"/>
-      <c r="BB6" s="113"/>
-      <c r="BC6" s="113"/>
-      <c r="BD6" s="113" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="113"/>
-      <c r="BF6" s="113"/>
-      <c r="BG6" s="113"/>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="114" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="114"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="114"/>
-      <c r="BM6" s="114"/>
-      <c r="BN6" s="115"/>
-      <c r="BO6" s="109"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -40041,12 +40054,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="99"/>
       <c r="G8" s="100"/>
       <c r="H8" s="91"/>
@@ -41070,14 +41083,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -42101,12 +42114,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -43130,12 +43143,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44159,12 +44172,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -44229,14 +44242,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="118"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44301,12 +44314,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44371,12 +44384,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="118"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44441,12 +44454,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="118"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44511,12 +44524,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44581,12 +44594,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44651,12 +44664,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44721,14 +44734,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44793,12 +44806,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="124"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44863,12 +44876,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="124"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44933,12 +44946,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="124"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -45003,12 +45016,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="124"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45073,14 +45086,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="125"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45145,12 +45158,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="130"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="126"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45215,12 +45228,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="130"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="126"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45285,12 +45298,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="130"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="126"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45355,12 +45368,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="131"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45497,10 +45510,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="134"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="134"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45565,10 +45578,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="135"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="135"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45633,10 +45646,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="135"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="135"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45701,10 +45714,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="135"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="135"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45769,10 +45782,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="135"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="135"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45837,10 +45850,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="135"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="135"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45905,10 +45918,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="135"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="135"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45973,10 +45986,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="135"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="135"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -46041,10 +46054,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="135"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="135"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46109,10 +46122,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="135"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="135"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46177,10 +46190,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="135"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="135"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46245,10 +46258,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="135"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="135"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46313,10 +46326,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="135"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="135"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46381,10 +46394,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="135"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="135"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46449,10 +46462,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="135"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="135"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46517,10 +46530,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="135"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="135"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46585,10 +46598,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="135"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="135"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46653,10 +46666,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="135"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="135"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46721,10 +46734,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="135"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="135"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46789,10 +46802,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="135"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="135"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46857,10 +46870,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="135"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="135"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46925,10 +46938,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="135"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="135"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -46993,10 +47006,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="135"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="135"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47061,10 +47074,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="135"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="135"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47129,10 +47142,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="135"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="135"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47197,10 +47210,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="135"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="135"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47265,10 +47278,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="135"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="135"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47328,10 +47341,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="136"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="136"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47396,7 +47409,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47468,7 +47481,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="127"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47538,7 +47551,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47610,7 +47623,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="128"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47678,7 +47691,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="128"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47887,27 +47900,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -47918,16 +47920,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47938,11 +47951,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -47959,16 +47972,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="45">
-      <c r="B1" s="108" t="s">
+    <row r="1" spans="1:1026" ht="43.5">
+      <c r="B1" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
-    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -48132,84 +48145,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="115" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="109" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48217,108 +48230,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="15" thickBot="1">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="113" t="s">
+    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="113" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="113"/>
-      <c r="BB6" s="113"/>
-      <c r="BC6" s="113"/>
-      <c r="BD6" s="113" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="113"/>
-      <c r="BF6" s="113"/>
-      <c r="BG6" s="113"/>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="114" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="114"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="114"/>
-      <c r="BM6" s="114"/>
-      <c r="BN6" s="115"/>
-      <c r="BO6" s="109"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49343,12 +49356,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50372,17 +50385,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="138"/>
+      <c r="H9" s="108"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -51403,12 +51416,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52432,12 +52445,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53461,12 +53474,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53531,14 +53544,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="118"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53603,12 +53616,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53673,12 +53686,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="118"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53743,12 +53756,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="118"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53813,12 +53826,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53883,12 +53896,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53953,12 +53966,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -54023,14 +54036,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54095,12 +54108,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="124"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54165,12 +54178,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="124"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54235,12 +54248,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="124"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54305,12 +54318,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="124"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54375,14 +54388,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="125"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54447,12 +54460,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="130"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="126"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54517,12 +54530,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="130"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="126"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54587,12 +54600,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="130"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="126"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54657,12 +54670,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="131"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54799,10 +54812,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="134"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="134"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54867,10 +54880,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="135"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="135"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54935,10 +54948,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="135"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="135"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -55003,10 +55016,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="135"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="135"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55071,10 +55084,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="135"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="135"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55139,10 +55152,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="135"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="135"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55207,10 +55220,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="135"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="135"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55275,10 +55288,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="135"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="135"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55343,10 +55356,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="135"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="135"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55411,10 +55424,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="135"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="135"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55479,10 +55492,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="135"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="135"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55547,10 +55560,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="135"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="135"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55615,10 +55628,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="135"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="135"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55683,10 +55696,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="135"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="135"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55751,10 +55764,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="135"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="135"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55819,10 +55832,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="135"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="135"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55887,10 +55900,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="135"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="135"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55955,10 +55968,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="135"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="135"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -56023,10 +56036,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="135"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="135"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56091,10 +56104,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="135"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="135"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56159,10 +56172,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="135"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="135"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56227,10 +56240,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="135"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="135"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56295,10 +56308,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="135"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="135"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56363,10 +56376,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="135"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="135"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56431,10 +56444,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="135"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="135"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56499,10 +56512,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="135"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="135"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56567,10 +56580,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="135"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="135"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56630,10 +56643,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="136"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="136"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56698,7 +56711,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56770,7 +56783,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="127"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56840,7 +56853,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56912,7 +56925,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="128"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56980,7 +56993,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="128"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57189,27 +57202,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -57220,16 +57222,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -57244,7 +57257,7 @@
       <selection activeCell="E20" sqref="E20:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
@@ -57261,16 +57274,16 @@
     <col min="1027" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="45">
-      <c r="B1" s="108" t="s">
+    <row r="1" spans="1:1026" ht="43.5">
+      <c r="B1" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
-    <row r="2" spans="1:1026" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -57434,84 +57447,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="115" t="s">
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="137"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="137"/>
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="137"/>
+      <c r="AT5" s="137"/>
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="137"/>
+      <c r="BA5" s="137"/>
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="137"/>
+      <c r="BH5" s="137"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="109" t="s">
+      <c r="BO5" s="132" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57519,108 +57532,108 @@
       <c r="BT5" s="94"/>
       <c r="BU5" s="94"/>
     </row>
-    <row r="6" spans="1:1026" ht="15" thickBot="1">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="113" t="s">
+    <row r="6" spans="1:1026" ht="17.25" thickBot="1">
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113" t="s">
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113" t="s">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113" t="s">
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113" t="s">
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113" t="s">
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113" t="s">
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113" t="s">
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="113" t="s">
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="133"/>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="113"/>
-      <c r="BA6" s="113"/>
-      <c r="BB6" s="113"/>
-      <c r="BC6" s="113"/>
-      <c r="BD6" s="113" t="s">
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="113"/>
-      <c r="BF6" s="113"/>
-      <c r="BG6" s="113"/>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="114" t="s">
+      <c r="BE6" s="133"/>
+      <c r="BF6" s="133"/>
+      <c r="BG6" s="133"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="114"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="114"/>
-      <c r="BM6" s="114"/>
-      <c r="BN6" s="115"/>
-      <c r="BO6" s="109"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="132"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58645,12 +58658,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59674,14 +59687,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="122" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="106"/>
@@ -60705,12 +60718,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -61734,12 +61747,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62763,12 +62776,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62833,14 +62846,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="122" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="118"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62905,12 +62918,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="119"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62975,12 +62988,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="118"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63045,12 +63058,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="119"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="118"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63115,12 +63128,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63185,12 +63198,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="119"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63255,12 +63268,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63325,14 +63338,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="125" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63397,12 +63410,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="124"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63467,12 +63480,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="124"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63537,12 +63550,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="124"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63607,12 +63620,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="124"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63677,14 +63690,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="125"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63749,12 +63762,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="130"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="126"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63819,12 +63832,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="130"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="126"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63889,12 +63902,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="130"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="126"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63959,12 +63972,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="131"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64101,10 +64114,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="134"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="134"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64169,10 +64182,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="135"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="135"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="119"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64237,10 +64250,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="135"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="135"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64305,10 +64318,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="135"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="135"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64373,10 +64386,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="135"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="135"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64441,10 +64454,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="135"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="135"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64509,10 +64522,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="135"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="135"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64577,10 +64590,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="135"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="135"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64645,10 +64658,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="135"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="135"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64713,10 +64726,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="135"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="135"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64781,10 +64794,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="135"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="135"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64849,10 +64862,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="135"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="135"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64917,10 +64930,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="135"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="135"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64985,10 +64998,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="135"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="135"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65053,10 +65066,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="135"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="135"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65121,10 +65134,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="135"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="135"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65189,10 +65202,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="135"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="135"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65257,10 +65270,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="135"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="135"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65325,10 +65338,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="135"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="135"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65393,10 +65406,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="135"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="135"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65461,10 +65474,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="135"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="135"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65529,10 +65542,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="135"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="135"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65597,10 +65610,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="135"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="135"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65665,10 +65678,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="135"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="135"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65733,10 +65746,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="135"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="135"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65801,10 +65814,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="135"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="135"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65869,10 +65882,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="135"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="135"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65932,10 +65945,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="136"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="136"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="120"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -66000,7 +66013,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66072,7 +66085,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="127"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66142,7 +66155,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66214,7 +66227,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="128"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66282,7 +66295,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="128"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66491,21 +66504,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66516,22 +66530,21 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Progress.xlsx
+++ b/QC_QNU_Progress.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QC_Training_2019_01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -236,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -370,7 +365,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +882,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1067,6 +1068,65 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,12 +1145,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,59 +1160,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1435,7 +1438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1445,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -1467,13 +1470,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1639,84 +1642,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
+      <c r="AX5" s="115"/>
+      <c r="AY5" s="115"/>
+      <c r="AZ5" s="115"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="115"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
+      <c r="BJ5" s="115"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="115"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="112" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1725,107 +1728,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="117"/>
+      <c r="BK6" s="117"/>
+      <c r="BL6" s="117"/>
+      <c r="BM6" s="117"/>
+      <c r="BN6" s="118"/>
+      <c r="BO6" s="112"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="119" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2850,12 +2853,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3886,10 +3889,10 @@
         <v>43</v>
       </c>
       <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="139"/>
+      <c r="H9" s="109"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -4915,7 +4918,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -4923,7 +4926,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="140"/>
+      <c r="M10" s="110"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -5944,7 +5947,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6973,7 +6976,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -7045,7 +7048,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7115,7 +7118,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7185,7 +7188,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7255,7 +7258,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7325,7 +7328,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7395,7 +7398,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7465,7 +7468,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7530,14 +7533,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="127" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="128"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7602,12 +7605,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="125"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="129"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7672,12 +7675,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="125"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7742,12 +7745,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="125"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7812,12 +7815,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="125"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7882,14 +7885,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="132" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="128"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7954,12 +7957,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -8024,12 +8027,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8094,12 +8097,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8164,12 +8167,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8306,10 +8309,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8374,10 +8377,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8442,10 +8445,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8510,10 +8513,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8578,10 +8581,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8646,10 +8649,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8714,10 +8717,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8782,10 +8785,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="138"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8850,10 +8853,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="138"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8918,10 +8921,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="138"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8986,10 +8989,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9054,10 +9057,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="138"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9122,10 +9125,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9190,10 +9193,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9258,10 +9261,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="138"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9326,10 +9329,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="138"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9394,10 +9397,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="138"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9462,10 +9465,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="138"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9530,10 +9533,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="138"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9598,10 +9601,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="138"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9666,10 +9669,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="138"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9734,10 +9737,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="138"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9802,10 +9805,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="138"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9870,10 +9873,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="138"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9938,10 +9941,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="138"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -10006,10 +10009,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="138"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10074,10 +10077,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="138"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10137,10 +10140,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="139"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10205,7 +10208,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="130" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10277,7 +10280,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10347,7 +10350,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="131" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10419,7 +10422,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="131"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10487,7 +10490,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10696,6 +10699,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -10706,37 +10740,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10768,13 +10771,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10940,84 +10943,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
+      <c r="AX5" s="115"/>
+      <c r="AY5" s="115"/>
+      <c r="AZ5" s="115"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="115"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
+      <c r="BJ5" s="115"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="115"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="112" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -11026,107 +11029,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="117"/>
+      <c r="BK6" s="117"/>
+      <c r="BL6" s="117"/>
+      <c r="BM6" s="117"/>
+      <c r="BN6" s="118"/>
+      <c r="BO6" s="112"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="119" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12151,12 +12154,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13187,7 +13190,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="106"/>
@@ -14216,7 +14219,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -15245,7 +15248,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16274,7 +16277,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16346,7 +16349,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16416,7 +16419,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16486,7 +16489,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16556,7 +16559,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16626,7 +16629,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16696,7 +16699,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16766,7 +16769,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16831,14 +16834,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="127" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="128"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16903,12 +16906,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="125"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="129"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16973,12 +16976,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="125"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17043,12 +17046,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="125"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17113,12 +17116,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="125"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17183,14 +17186,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="132" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="128"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17255,12 +17258,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17325,12 +17328,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17395,12 +17398,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17465,12 +17468,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17607,10 +17610,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17675,10 +17678,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17743,10 +17746,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17811,10 +17814,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17879,10 +17882,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17947,10 +17950,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -18015,10 +18018,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18083,10 +18086,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="138"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18151,10 +18154,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="138"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18219,10 +18222,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="138"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18287,10 +18290,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18355,10 +18358,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="138"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18423,10 +18426,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18491,10 +18494,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18559,10 +18562,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="138"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18627,10 +18630,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="138"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18695,10 +18698,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="138"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18763,10 +18766,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="138"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18831,10 +18834,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="138"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18899,10 +18902,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="138"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18967,10 +18970,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="138"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -19035,10 +19038,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="138"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19103,10 +19106,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="138"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19171,10 +19174,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="138"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19239,10 +19242,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="138"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19307,10 +19310,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="138"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19375,10 +19378,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="138"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19438,10 +19441,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="139"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19506,7 +19509,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="130" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19578,7 +19581,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19648,7 +19651,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="131" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19720,7 +19723,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="131"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19788,7 +19791,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -19997,6 +20000,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -20007,37 +20041,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20069,13 +20072,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20241,84 +20244,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
+      <c r="AX5" s="115"/>
+      <c r="AY5" s="115"/>
+      <c r="AZ5" s="115"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="115"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
+      <c r="BJ5" s="115"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="115"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="112" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20327,107 +20330,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="117"/>
+      <c r="BK6" s="117"/>
+      <c r="BL6" s="117"/>
+      <c r="BM6" s="117"/>
+      <c r="BN6" s="118"/>
+      <c r="BO6" s="112"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="119" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21452,12 +21455,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22488,7 +22491,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23517,7 +23520,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24546,7 +24549,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25575,7 +25578,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25647,7 +25650,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25717,7 +25720,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25787,7 +25790,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25857,7 +25860,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25927,7 +25930,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25997,7 +26000,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26067,7 +26070,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26132,14 +26135,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="127" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="128"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26204,12 +26207,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="125"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="129"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26274,12 +26277,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="125"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26344,12 +26347,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="125"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26414,12 +26417,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="125"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26484,14 +26487,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="132" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="128"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26556,12 +26559,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26626,12 +26629,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26696,12 +26699,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26766,12 +26769,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26908,10 +26911,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26976,10 +26979,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27044,10 +27047,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27112,10 +27115,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27180,10 +27183,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27248,10 +27251,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27316,10 +27319,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27384,10 +27387,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="138"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27452,10 +27455,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="138"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27520,10 +27523,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="138"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27588,10 +27591,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27656,10 +27659,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="138"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27724,10 +27727,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27792,10 +27795,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27860,10 +27863,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="138"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27928,10 +27931,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="138"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27996,10 +27999,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="138"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28064,10 +28067,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="138"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28132,10 +28135,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="138"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28200,10 +28203,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="138"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28268,10 +28271,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="138"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28336,10 +28339,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="138"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28404,10 +28407,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="138"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28472,10 +28475,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="138"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28540,10 +28543,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="138"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28608,10 +28611,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="138"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28676,10 +28679,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="138"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28739,10 +28742,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="139"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28807,7 +28810,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="130" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28879,7 +28882,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28949,7 +28952,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="131" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -29021,7 +29024,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="131"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29089,7 +29092,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29298,6 +29301,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -29308,37 +29342,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29348,8 +29351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -29370,13 +29373,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29542,84 +29545,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
+      <c r="AX5" s="115"/>
+      <c r="AY5" s="115"/>
+      <c r="AZ5" s="115"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="115"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
+      <c r="BJ5" s="115"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="115"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="112" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29628,107 +29631,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="117"/>
+      <c r="BK6" s="117"/>
+      <c r="BL6" s="117"/>
+      <c r="BM6" s="117"/>
+      <c r="BN6" s="118"/>
+      <c r="BO6" s="112"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="119" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30753,12 +30756,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31789,10 +31792,10 @@
         <v>43</v>
       </c>
       <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
+      <c r="H9" s="141"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -32818,7 +32821,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -32826,7 +32829,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="142"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -33847,7 +33850,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34876,7 +34879,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34948,7 +34951,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -35018,7 +35021,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35088,7 +35091,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35158,7 +35161,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35228,7 +35231,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35298,7 +35301,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35368,7 +35371,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35433,14 +35436,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="127" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="128"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35505,12 +35508,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="125"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="129"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35575,12 +35578,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="125"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35645,12 +35648,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="125"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35715,12 +35718,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="125"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35785,14 +35788,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="132" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="128"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35857,12 +35860,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35927,12 +35930,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -35997,12 +36000,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36067,12 +36070,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36209,10 +36212,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36277,10 +36280,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36345,10 +36348,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36413,10 +36416,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36481,10 +36484,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36549,10 +36552,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36617,10 +36620,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36685,10 +36688,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="138"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36753,10 +36756,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="138"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36821,10 +36824,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="138"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36889,10 +36892,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36957,10 +36960,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="138"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -37025,10 +37028,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37093,10 +37096,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37161,10 +37164,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="138"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37229,10 +37232,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="138"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37297,10 +37300,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="138"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37365,10 +37368,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="138"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37433,10 +37436,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="138"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37501,10 +37504,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="138"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37569,10 +37572,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="138"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37637,10 +37640,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="138"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37705,10 +37708,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="138"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37773,10 +37776,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="138"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37841,10 +37844,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="138"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37909,10 +37912,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="138"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37977,10 +37980,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="138"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -38040,10 +38043,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="139"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38108,7 +38111,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="130" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38180,7 +38183,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38250,7 +38253,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="131" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38322,7 +38325,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="131"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38390,7 +38393,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38599,6 +38602,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -38609,37 +38643,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38671,13 +38674,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38843,84 +38846,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
+      <c r="AX5" s="115"/>
+      <c r="AY5" s="115"/>
+      <c r="AZ5" s="115"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="115"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
+      <c r="BJ5" s="115"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="115"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="112" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38929,107 +38932,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="117"/>
+      <c r="BK6" s="117"/>
+      <c r="BL6" s="117"/>
+      <c r="BM6" s="117"/>
+      <c r="BN6" s="118"/>
+      <c r="BO6" s="112"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="119" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -40054,12 +40057,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="99"/>
       <c r="G8" s="100"/>
       <c r="H8" s="91"/>
@@ -41090,7 +41093,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="E9" s="124"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -42119,7 +42122,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="77"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -43148,7 +43151,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -44177,7 +44180,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -44249,7 +44252,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -44319,7 +44322,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -44389,7 +44392,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -44459,7 +44462,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -44529,7 +44532,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -44599,7 +44602,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -44669,7 +44672,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -44734,14 +44737,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="127" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="128"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -44806,12 +44809,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="125"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="129"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -44876,12 +44879,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="125"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -44946,12 +44949,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="125"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -45016,12 +45019,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="125"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -45086,14 +45089,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="132" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="128"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -45158,12 +45161,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -45228,12 +45231,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -45298,12 +45301,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -45368,12 +45371,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -45510,10 +45513,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -45578,10 +45581,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -45646,10 +45649,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -45714,10 +45717,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -45782,10 +45785,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -45850,10 +45853,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -45918,10 +45921,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -45986,10 +45989,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="138"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -46054,10 +46057,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="138"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -46122,10 +46125,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="138"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -46190,10 +46193,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -46258,10 +46261,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="138"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -46326,10 +46329,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -46394,10 +46397,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -46462,10 +46465,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="138"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -46530,10 +46533,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="138"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -46598,10 +46601,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="138"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -46666,10 +46669,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="138"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -46734,10 +46737,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="138"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -46802,10 +46805,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="138"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -46870,10 +46873,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="138"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -46938,10 +46941,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="138"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -47006,10 +47009,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="138"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -47074,10 +47077,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="138"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -47142,10 +47145,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="138"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -47210,10 +47213,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="138"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -47278,10 +47281,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="138"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -47341,10 +47344,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="139"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -47409,7 +47412,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="130" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -47481,7 +47484,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -47551,7 +47554,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="131" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -47623,7 +47626,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="131"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -47691,7 +47694,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -47900,6 +47903,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -47910,37 +47944,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47973,13 +47976,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -48145,84 +48148,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
+      <c r="AX5" s="115"/>
+      <c r="AY5" s="115"/>
+      <c r="AZ5" s="115"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="115"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
+      <c r="BJ5" s="115"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="115"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="112" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -48231,107 +48234,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="117"/>
+      <c r="BK6" s="117"/>
+      <c r="BL6" s="117"/>
+      <c r="BM6" s="117"/>
+      <c r="BN6" s="118"/>
+      <c r="BO6" s="112"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="119" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -49356,12 +49359,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -50392,7 +50395,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="108"/>
@@ -51421,7 +51424,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -52450,7 +52453,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -53479,7 +53482,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -53551,7 +53554,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -53621,7 +53624,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -53691,7 +53694,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -53761,7 +53764,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -53831,7 +53834,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -53901,7 +53904,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -53971,7 +53974,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -54036,14 +54039,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="127" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="128"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -54108,12 +54111,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="125"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="129"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -54178,12 +54181,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="125"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -54248,12 +54251,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="125"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -54318,12 +54321,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="125"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -54388,14 +54391,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="132" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="128"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -54460,12 +54463,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -54530,12 +54533,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -54600,12 +54603,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -54670,12 +54673,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -54812,10 +54815,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -54880,10 +54883,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -54948,10 +54951,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -55016,10 +55019,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -55084,10 +55087,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -55152,10 +55155,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -55220,10 +55223,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -55288,10 +55291,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="138"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -55356,10 +55359,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="138"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -55424,10 +55427,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="138"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -55492,10 +55495,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -55560,10 +55563,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="138"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -55628,10 +55631,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -55696,10 +55699,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -55764,10 +55767,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="138"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -55832,10 +55835,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="138"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -55900,10 +55903,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="138"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -55968,10 +55971,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="138"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -56036,10 +56039,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="138"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -56104,10 +56107,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="138"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -56172,10 +56175,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="138"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -56240,10 +56243,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="138"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -56308,10 +56311,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="138"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -56376,10 +56379,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="138"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -56444,10 +56447,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="138"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -56512,10 +56515,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="138"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -56580,10 +56583,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="138"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -56643,10 +56646,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="139"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -56711,7 +56714,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="130" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -56783,7 +56786,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -56853,7 +56856,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="131" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -56925,7 +56928,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="131"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -56993,7 +56996,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -57202,6 +57205,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -57212,37 +57246,6 @@
     <mergeCell ref="AY6:BC6"/>
     <mergeCell ref="BD6:BH6"/>
     <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -57275,13 +57278,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -57447,84 +57450,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137"/>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137"/>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="131" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
+      <c r="AX5" s="115"/>
+      <c r="AY5" s="115"/>
+      <c r="AZ5" s="115"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="115"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
+      <c r="BJ5" s="115"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="115"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="132" t="s">
+      <c r="BO5" s="112" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -57533,107 +57536,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133" t="s">
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133" t="s">
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133" t="s">
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133" t="s">
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133" t="s">
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133" t="s">
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133" t="s">
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="133"/>
-      <c r="BF6" s="133"/>
-      <c r="BG6" s="133"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="138" t="s">
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="132"/>
+      <c r="BJ6" s="117"/>
+      <c r="BK6" s="117"/>
+      <c r="BL6" s="117"/>
+      <c r="BM6" s="117"/>
+      <c r="BN6" s="118"/>
+      <c r="BO6" s="112"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="119" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -58658,12 +58661,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -59694,7 +59697,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="106"/>
@@ -60723,7 +60726,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="123"/>
-      <c r="E10" s="129"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -61752,7 +61755,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="123"/>
-      <c r="E11" s="129"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -62781,7 +62784,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="123"/>
-      <c r="E12" s="130"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -62853,7 +62856,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -62923,7 +62926,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -62993,7 +62996,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -63063,7 +63066,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -63133,7 +63136,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -63203,7 +63206,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -63273,7 +63276,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -63338,14 +63341,14 @@
       <c r="BO19" s="27"/>
     </row>
     <row r="20" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="127" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="115"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="128"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -63410,12 +63413,12 @@
       <c r="BO20" s="20"/>
     </row>
     <row r="21" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="125"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="129"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -63480,12 +63483,12 @@
       <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B22" s="125"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="116"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -63550,12 +63553,12 @@
       <c r="BO22" s="31"/>
     </row>
     <row r="23" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="125"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -63620,12 +63623,12 @@
       <c r="BO23" s="31"/>
     </row>
     <row r="24" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="125"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="116"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -63690,14 +63693,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="132" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="128"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -63762,12 +63765,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="116"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -63832,12 +63835,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="116"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -63902,12 +63905,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="112"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="116"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -63972,12 +63975,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="117"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -64114,10 +64117,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="118"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -64182,10 +64185,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="119"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="119"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -64250,10 +64253,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="119"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -64318,10 +64321,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="119"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="119"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -64386,10 +64389,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -64454,10 +64457,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="119"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="119"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -64522,10 +64525,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="119"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="119"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -64590,10 +64593,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="119"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="119"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="138"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -64658,10 +64661,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="119"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="138"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -64726,10 +64729,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="119"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="119"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="138"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -64794,10 +64797,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="119"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="119"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -64862,10 +64865,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="119"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="119"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="138"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -64930,10 +64933,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="119"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="119"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="138"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -64998,10 +65001,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="119"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="119"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="138"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -65066,10 +65069,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="119"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="119"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="138"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -65134,10 +65137,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="119"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="138"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -65202,10 +65205,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="119"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="138"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -65270,10 +65273,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="119"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="138"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -65338,10 +65341,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="119"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="138"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -65406,10 +65409,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="119"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="138"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -65474,10 +65477,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="119"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="138"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -65542,10 +65545,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="138"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -65610,10 +65613,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="138"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -65678,10 +65681,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="138"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -65746,10 +65749,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="119"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="119"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="138"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -65814,10 +65817,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="119"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="138"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -65882,10 +65885,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="119"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="138"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -65945,10 +65948,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="120"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="120"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="139"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -66013,7 +66016,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="130" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -66085,7 +66088,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="109"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -66155,7 +66158,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="131" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -66227,7 +66230,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="110"/>
+      <c r="B62" s="131"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -66295,7 +66298,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="110"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -66504,22 +66507,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="AE6:AI6"/>
-    <mergeCell ref="AJ6:AN6"/>
-    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="E31:E58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="B13:B19"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D7:D8"/>
@@ -66530,21 +66532,22 @@
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="AE6:AI6"/>
+    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AO6:AS6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC_QNU_Progress.xlsx
+++ b/QC_QNU_Progress.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\GIT_Training\QC_Training_2019_01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="690" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Truong Thi Thu Huong" sheetId="4" r:id="rId1"/>
@@ -450,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -832,32 +837,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -868,6 +847,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -882,7 +872,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1058,75 +1048,18 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,6 +1078,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1160,8 +1099,67 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1438,7 +1436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1470,13 +1468,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -1642,84 +1640,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="115"/>
-      <c r="AJ5" s="115"/>
-      <c r="AK5" s="115"/>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
-      <c r="AX5" s="115"/>
-      <c r="AY5" s="115"/>
-      <c r="AZ5" s="115"/>
-      <c r="BA5" s="115"/>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="115"/>
-      <c r="BD5" s="115"/>
-      <c r="BE5" s="115"/>
-      <c r="BF5" s="115"/>
-      <c r="BG5" s="115"/>
-      <c r="BH5" s="115"/>
-      <c r="BI5" s="115"/>
-      <c r="BJ5" s="115"/>
-      <c r="BK5" s="115"/>
-      <c r="BL5" s="115"/>
-      <c r="BM5" s="115"/>
-      <c r="BN5" s="118" t="s">
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="139"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="139"/>
+      <c r="AQ5" s="139"/>
+      <c r="AR5" s="139"/>
+      <c r="AS5" s="139"/>
+      <c r="AT5" s="139"/>
+      <c r="AU5" s="139"/>
+      <c r="AV5" s="139"/>
+      <c r="AW5" s="139"/>
+      <c r="AX5" s="139"/>
+      <c r="AY5" s="139"/>
+      <c r="AZ5" s="139"/>
+      <c r="BA5" s="139"/>
+      <c r="BB5" s="139"/>
+      <c r="BC5" s="139"/>
+      <c r="BD5" s="139"/>
+      <c r="BE5" s="139"/>
+      <c r="BF5" s="139"/>
+      <c r="BG5" s="139"/>
+      <c r="BH5" s="139"/>
+      <c r="BI5" s="139"/>
+      <c r="BJ5" s="139"/>
+      <c r="BK5" s="139"/>
+      <c r="BL5" s="139"/>
+      <c r="BM5" s="139"/>
+      <c r="BN5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="112" t="s">
+      <c r="BO5" s="134" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -1728,107 +1726,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116" t="s">
+      <c r="B6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116" t="s">
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116" t="s">
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116" t="s">
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116" t="s">
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116" t="s">
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116" t="s">
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="116"/>
-      <c r="AO6" s="116" t="s">
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="116"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="116"/>
-      <c r="AS6" s="116"/>
-      <c r="AT6" s="116" t="s">
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="116"/>
-      <c r="AV6" s="116"/>
-      <c r="AW6" s="116"/>
-      <c r="AX6" s="116"/>
-      <c r="AY6" s="116" t="s">
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="116"/>
-      <c r="BA6" s="116"/>
-      <c r="BB6" s="116"/>
-      <c r="BC6" s="116"/>
-      <c r="BD6" s="116" t="s">
+      <c r="AZ6" s="135"/>
+      <c r="BA6" s="135"/>
+      <c r="BB6" s="135"/>
+      <c r="BC6" s="135"/>
+      <c r="BD6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="116"/>
-      <c r="BF6" s="116"/>
-      <c r="BG6" s="116"/>
-      <c r="BH6" s="116"/>
-      <c r="BI6" s="117" t="s">
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="135"/>
+      <c r="BG6" s="135"/>
+      <c r="BH6" s="135"/>
+      <c r="BI6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="117"/>
-      <c r="BK6" s="117"/>
-      <c r="BL6" s="117"/>
-      <c r="BM6" s="117"/>
-      <c r="BN6" s="118"/>
-      <c r="BO6" s="112"/>
+      <c r="BJ6" s="140"/>
+      <c r="BK6" s="140"/>
+      <c r="BL6" s="140"/>
+      <c r="BM6" s="140"/>
+      <c r="BN6" s="133"/>
+      <c r="BO6" s="134"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -2853,12 +2851,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="119"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -3882,17 +3880,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="124" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="109"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -4913,12 +4911,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -4926,7 +4924,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="110"/>
+      <c r="M10" s="108"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -5942,12 +5940,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -6971,12 +6969,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="126"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="132"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -7041,14 +7039,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="124" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -7113,12 +7111,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -7183,12 +7181,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -7253,12 +7251,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -7323,12 +7321,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -7393,12 +7391,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -7463,12 +7461,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -7539,8 +7537,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -7609,8 +7607,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="129"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -7679,8 +7677,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="129"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -7749,8 +7747,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="129"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -7819,8 +7817,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="129"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -7885,14 +7883,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="113" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="135"/>
-      <c r="E25" s="128"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -7957,12 +7955,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="133"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="129"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -8027,12 +8025,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="133"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="129"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -8097,12 +8095,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="133"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="129"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8167,12 +8165,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="134"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -8309,10 +8307,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="137"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="137"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="120"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -8377,10 +8375,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="138"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="138"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -8445,10 +8443,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="138"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="138"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -8513,10 +8511,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="138"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="138"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="121"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -8581,10 +8579,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="138"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="138"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="121"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -8649,10 +8647,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="138"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="138"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="121"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -8717,10 +8715,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="138"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="138"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="121"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -8785,10 +8783,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="138"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="138"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="121"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -8853,10 +8851,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="138"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="138"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -8921,10 +8919,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="138"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="138"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -8989,10 +8987,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="138"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="138"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="121"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -9057,10 +9055,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="138"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="138"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="121"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -9125,10 +9123,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="138"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="138"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="121"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -9193,10 +9191,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="138"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="138"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="121"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -9261,10 +9259,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="138"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="138"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -9329,10 +9327,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="138"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="138"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -9397,10 +9395,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="138"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="138"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -9465,10 +9463,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="138"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="138"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -9533,10 +9531,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="138"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="138"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -9601,10 +9599,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="138"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="138"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="121"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -9669,10 +9667,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="138"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="138"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="121"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -9737,10 +9735,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="138"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="138"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="121"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -9805,10 +9803,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="138"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="138"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="121"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -9873,10 +9871,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="138"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="138"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="121"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -9941,10 +9939,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="138"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="138"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="121"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -10009,10 +10007,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="138"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="138"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="121"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -10077,10 +10075,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="138"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="138"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="121"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10140,10 +10138,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="139"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="139"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="122"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -10208,7 +10206,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="111" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -10280,7 +10278,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="130"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -10350,7 +10348,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="131" t="s">
+      <c r="B61" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -10422,7 +10420,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="131"/>
+      <c r="B62" s="112"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -10490,7 +10488,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="131"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -10699,27 +10697,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -10730,16 +10717,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10771,13 +10769,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -10943,84 +10941,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="115"/>
-      <c r="AJ5" s="115"/>
-      <c r="AK5" s="115"/>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
-      <c r="AX5" s="115"/>
-      <c r="AY5" s="115"/>
-      <c r="AZ5" s="115"/>
-      <c r="BA5" s="115"/>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="115"/>
-      <c r="BD5" s="115"/>
-      <c r="BE5" s="115"/>
-      <c r="BF5" s="115"/>
-      <c r="BG5" s="115"/>
-      <c r="BH5" s="115"/>
-      <c r="BI5" s="115"/>
-      <c r="BJ5" s="115"/>
-      <c r="BK5" s="115"/>
-      <c r="BL5" s="115"/>
-      <c r="BM5" s="115"/>
-      <c r="BN5" s="118" t="s">
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="139"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="139"/>
+      <c r="AQ5" s="139"/>
+      <c r="AR5" s="139"/>
+      <c r="AS5" s="139"/>
+      <c r="AT5" s="139"/>
+      <c r="AU5" s="139"/>
+      <c r="AV5" s="139"/>
+      <c r="AW5" s="139"/>
+      <c r="AX5" s="139"/>
+      <c r="AY5" s="139"/>
+      <c r="AZ5" s="139"/>
+      <c r="BA5" s="139"/>
+      <c r="BB5" s="139"/>
+      <c r="BC5" s="139"/>
+      <c r="BD5" s="139"/>
+      <c r="BE5" s="139"/>
+      <c r="BF5" s="139"/>
+      <c r="BG5" s="139"/>
+      <c r="BH5" s="139"/>
+      <c r="BI5" s="139"/>
+      <c r="BJ5" s="139"/>
+      <c r="BK5" s="139"/>
+      <c r="BL5" s="139"/>
+      <c r="BM5" s="139"/>
+      <c r="BN5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="112" t="s">
+      <c r="BO5" s="134" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -11029,107 +11027,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116" t="s">
+      <c r="B6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116" t="s">
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116" t="s">
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116" t="s">
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116" t="s">
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116" t="s">
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116" t="s">
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="116"/>
-      <c r="AO6" s="116" t="s">
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="116"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="116"/>
-      <c r="AS6" s="116"/>
-      <c r="AT6" s="116" t="s">
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="116"/>
-      <c r="AV6" s="116"/>
-      <c r="AW6" s="116"/>
-      <c r="AX6" s="116"/>
-      <c r="AY6" s="116" t="s">
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="116"/>
-      <c r="BA6" s="116"/>
-      <c r="BB6" s="116"/>
-      <c r="BC6" s="116"/>
-      <c r="BD6" s="116" t="s">
+      <c r="AZ6" s="135"/>
+      <c r="BA6" s="135"/>
+      <c r="BB6" s="135"/>
+      <c r="BC6" s="135"/>
+      <c r="BD6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="116"/>
-      <c r="BF6" s="116"/>
-      <c r="BG6" s="116"/>
-      <c r="BH6" s="116"/>
-      <c r="BI6" s="117" t="s">
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="135"/>
+      <c r="BG6" s="135"/>
+      <c r="BH6" s="135"/>
+      <c r="BI6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="117"/>
-      <c r="BK6" s="117"/>
-      <c r="BL6" s="117"/>
-      <c r="BM6" s="117"/>
-      <c r="BN6" s="118"/>
-      <c r="BO6" s="112"/>
+      <c r="BJ6" s="140"/>
+      <c r="BK6" s="140"/>
+      <c r="BL6" s="140"/>
+      <c r="BM6" s="140"/>
+      <c r="BN6" s="133"/>
+      <c r="BO6" s="134"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -12154,12 +12152,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="119"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -13183,17 +13181,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="124" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="106"/>
+      <c r="H9" s="104"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -14214,12 +14212,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -14227,7 +14225,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="107"/>
+      <c r="M10" s="105"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -15243,12 +15241,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -16272,12 +16270,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="126"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="132"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -16342,14 +16340,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="124" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -16414,12 +16412,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -16484,12 +16482,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -16554,12 +16552,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -16624,12 +16622,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -16694,12 +16692,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -16764,12 +16762,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -16840,8 +16838,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -16910,8 +16908,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="129"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16980,8 +16978,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="129"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -17050,8 +17048,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="129"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -17120,8 +17118,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="129"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -17186,14 +17184,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="113" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="135"/>
-      <c r="E25" s="128"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -17258,12 +17256,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="133"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="129"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -17328,12 +17326,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="133"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="129"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -17398,12 +17396,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="133"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="129"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -17468,12 +17466,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="134"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -17610,10 +17608,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="137"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="137"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="120"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -17678,10 +17676,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="138"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="138"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -17746,10 +17744,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="138"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="138"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -17814,10 +17812,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="138"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="138"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="121"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -17882,10 +17880,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="138"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="138"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="121"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -17950,10 +17948,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="138"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="138"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="121"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -18018,10 +18016,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="138"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="138"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="121"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -18086,10 +18084,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="138"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="138"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="121"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -18154,10 +18152,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="138"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="138"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -18222,10 +18220,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="138"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="138"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -18290,10 +18288,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="138"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="138"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="121"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -18358,10 +18356,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="138"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="138"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="121"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -18426,10 +18424,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="138"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="138"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="121"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -18494,10 +18492,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="138"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="138"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="121"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -18562,10 +18560,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="138"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="138"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -18630,10 +18628,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="138"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="138"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -18698,10 +18696,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="138"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="138"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -18766,10 +18764,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="138"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="138"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -18834,10 +18832,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="138"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="138"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -18902,10 +18900,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="138"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="138"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="121"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -18970,10 +18968,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="138"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="138"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="121"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -19038,10 +19036,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="138"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="138"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="121"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -19106,10 +19104,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="138"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="138"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="121"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -19174,10 +19172,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="138"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="138"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="121"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -19242,10 +19240,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="138"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="138"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="121"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -19310,10 +19308,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="138"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="138"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="121"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -19378,10 +19376,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="138"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="138"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="121"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -19441,10 +19439,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="139"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="139"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="122"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -19509,7 +19507,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="111" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -19581,7 +19579,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="130"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -19651,7 +19649,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="131" t="s">
+      <c r="B61" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -19723,7 +19721,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="131"/>
+      <c r="B62" s="112"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -19791,7 +19789,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="131"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -20000,27 +19998,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -20031,16 +20018,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20050,7 +20048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -20072,13 +20070,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -20244,84 +20242,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="115"/>
-      <c r="AJ5" s="115"/>
-      <c r="AK5" s="115"/>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
-      <c r="AX5" s="115"/>
-      <c r="AY5" s="115"/>
-      <c r="AZ5" s="115"/>
-      <c r="BA5" s="115"/>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="115"/>
-      <c r="BD5" s="115"/>
-      <c r="BE5" s="115"/>
-      <c r="BF5" s="115"/>
-      <c r="BG5" s="115"/>
-      <c r="BH5" s="115"/>
-      <c r="BI5" s="115"/>
-      <c r="BJ5" s="115"/>
-      <c r="BK5" s="115"/>
-      <c r="BL5" s="115"/>
-      <c r="BM5" s="115"/>
-      <c r="BN5" s="118" t="s">
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="139"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="139"/>
+      <c r="AQ5" s="139"/>
+      <c r="AR5" s="139"/>
+      <c r="AS5" s="139"/>
+      <c r="AT5" s="139"/>
+      <c r="AU5" s="139"/>
+      <c r="AV5" s="139"/>
+      <c r="AW5" s="139"/>
+      <c r="AX5" s="139"/>
+      <c r="AY5" s="139"/>
+      <c r="AZ5" s="139"/>
+      <c r="BA5" s="139"/>
+      <c r="BB5" s="139"/>
+      <c r="BC5" s="139"/>
+      <c r="BD5" s="139"/>
+      <c r="BE5" s="139"/>
+      <c r="BF5" s="139"/>
+      <c r="BG5" s="139"/>
+      <c r="BH5" s="139"/>
+      <c r="BI5" s="139"/>
+      <c r="BJ5" s="139"/>
+      <c r="BK5" s="139"/>
+      <c r="BL5" s="139"/>
+      <c r="BM5" s="139"/>
+      <c r="BN5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="112" t="s">
+      <c r="BO5" s="134" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -20330,107 +20328,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116" t="s">
+      <c r="B6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116" t="s">
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116" t="s">
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116" t="s">
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116" t="s">
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116" t="s">
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116" t="s">
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="116"/>
-      <c r="AO6" s="116" t="s">
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="116"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="116"/>
-      <c r="AS6" s="116"/>
-      <c r="AT6" s="116" t="s">
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="116"/>
-      <c r="AV6" s="116"/>
-      <c r="AW6" s="116"/>
-      <c r="AX6" s="116"/>
-      <c r="AY6" s="116" t="s">
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="116"/>
-      <c r="BA6" s="116"/>
-      <c r="BB6" s="116"/>
-      <c r="BC6" s="116"/>
-      <c r="BD6" s="116" t="s">
+      <c r="AZ6" s="135"/>
+      <c r="BA6" s="135"/>
+      <c r="BB6" s="135"/>
+      <c r="BC6" s="135"/>
+      <c r="BD6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="116"/>
-      <c r="BF6" s="116"/>
-      <c r="BG6" s="116"/>
-      <c r="BH6" s="116"/>
-      <c r="BI6" s="117" t="s">
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="135"/>
+      <c r="BG6" s="135"/>
+      <c r="BH6" s="135"/>
+      <c r="BI6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="117"/>
-      <c r="BK6" s="117"/>
-      <c r="BL6" s="117"/>
-      <c r="BM6" s="117"/>
-      <c r="BN6" s="118"/>
-      <c r="BO6" s="112"/>
+      <c r="BJ6" s="140"/>
+      <c r="BK6" s="140"/>
+      <c r="BL6" s="140"/>
+      <c r="BM6" s="140"/>
+      <c r="BN6" s="133"/>
+      <c r="BO6" s="134"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -21455,12 +21453,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="119"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -22484,14 +22482,14 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="124" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
       <c r="H9" s="83"/>
@@ -23515,12 +23513,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -24544,12 +24542,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -25573,12 +25571,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="126"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="132"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -25643,14 +25641,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="124" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -25715,12 +25713,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -25785,12 +25783,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -25855,12 +25853,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -25925,12 +25923,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -25995,12 +25993,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -26065,12 +26063,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -26141,8 +26139,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -26211,8 +26209,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="129"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -26281,8 +26279,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="129"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -26351,8 +26349,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="129"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -26421,8 +26419,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="129"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -26487,14 +26485,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="113" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="135"/>
-      <c r="E25" s="128"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -26559,12 +26557,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="133"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="129"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -26629,12 +26627,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="133"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="129"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -26699,12 +26697,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="133"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="129"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -26769,12 +26767,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="134"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -26911,10 +26909,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="137"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="137"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="120"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -26979,10 +26977,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="138"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="138"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -27047,10 +27045,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="138"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="138"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -27115,10 +27113,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="138"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="138"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="121"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -27183,10 +27181,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="138"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="138"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="121"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -27251,10 +27249,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="138"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="138"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="121"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -27319,10 +27317,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="138"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="138"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="121"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -27387,10 +27385,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="138"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="138"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="121"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -27455,10 +27453,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="138"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="138"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -27523,10 +27521,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="138"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="138"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -27591,10 +27589,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="138"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="138"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="121"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -27659,10 +27657,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="138"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="138"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="121"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -27727,10 +27725,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="138"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="138"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="121"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -27795,10 +27793,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="138"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="138"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="121"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -27863,10 +27861,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="138"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="138"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -27931,10 +27929,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="138"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="138"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -27999,10 +27997,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="138"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="138"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -28067,10 +28065,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="138"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="138"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -28135,10 +28133,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="138"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="138"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -28203,10 +28201,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="138"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="138"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="121"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -28271,10 +28269,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="138"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="138"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="121"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -28339,10 +28337,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="138"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="138"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="121"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -28407,10 +28405,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="138"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="138"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="121"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -28475,10 +28473,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="138"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="138"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="121"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -28543,10 +28541,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="138"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="138"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="121"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -28611,10 +28609,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="138"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="138"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="121"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -28679,10 +28677,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="138"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="138"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="121"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -28742,10 +28740,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="139"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="139"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="122"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -28810,7 +28808,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="111" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -28882,7 +28880,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="130"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -28952,7 +28950,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="131" t="s">
+      <c r="B61" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -29024,7 +29022,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="131"/>
+      <c r="B62" s="112"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -29092,7 +29090,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="131"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -29301,27 +29299,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -29332,16 +29319,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29351,7 +29349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -29373,13 +29371,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -29545,84 +29543,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="115"/>
-      <c r="AJ5" s="115"/>
-      <c r="AK5" s="115"/>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
-      <c r="AX5" s="115"/>
-      <c r="AY5" s="115"/>
-      <c r="AZ5" s="115"/>
-      <c r="BA5" s="115"/>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="115"/>
-      <c r="BD5" s="115"/>
-      <c r="BE5" s="115"/>
-      <c r="BF5" s="115"/>
-      <c r="BG5" s="115"/>
-      <c r="BH5" s="115"/>
-      <c r="BI5" s="115"/>
-      <c r="BJ5" s="115"/>
-      <c r="BK5" s="115"/>
-      <c r="BL5" s="115"/>
-      <c r="BM5" s="115"/>
-      <c r="BN5" s="118" t="s">
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="139"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="139"/>
+      <c r="AQ5" s="139"/>
+      <c r="AR5" s="139"/>
+      <c r="AS5" s="139"/>
+      <c r="AT5" s="139"/>
+      <c r="AU5" s="139"/>
+      <c r="AV5" s="139"/>
+      <c r="AW5" s="139"/>
+      <c r="AX5" s="139"/>
+      <c r="AY5" s="139"/>
+      <c r="AZ5" s="139"/>
+      <c r="BA5" s="139"/>
+      <c r="BB5" s="139"/>
+      <c r="BC5" s="139"/>
+      <c r="BD5" s="139"/>
+      <c r="BE5" s="139"/>
+      <c r="BF5" s="139"/>
+      <c r="BG5" s="139"/>
+      <c r="BH5" s="139"/>
+      <c r="BI5" s="139"/>
+      <c r="BJ5" s="139"/>
+      <c r="BK5" s="139"/>
+      <c r="BL5" s="139"/>
+      <c r="BM5" s="139"/>
+      <c r="BN5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="112" t="s">
+      <c r="BO5" s="134" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -29631,107 +29629,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116" t="s">
+      <c r="B6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116" t="s">
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116" t="s">
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116" t="s">
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116" t="s">
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116" t="s">
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116" t="s">
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="116"/>
-      <c r="AO6" s="116" t="s">
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="116"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="116"/>
-      <c r="AS6" s="116"/>
-      <c r="AT6" s="116" t="s">
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="116"/>
-      <c r="AV6" s="116"/>
-      <c r="AW6" s="116"/>
-      <c r="AX6" s="116"/>
-      <c r="AY6" s="116" t="s">
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="116"/>
-      <c r="BA6" s="116"/>
-      <c r="BB6" s="116"/>
-      <c r="BC6" s="116"/>
-      <c r="BD6" s="116" t="s">
+      <c r="AZ6" s="135"/>
+      <c r="BA6" s="135"/>
+      <c r="BB6" s="135"/>
+      <c r="BC6" s="135"/>
+      <c r="BD6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="116"/>
-      <c r="BF6" s="116"/>
-      <c r="BG6" s="116"/>
-      <c r="BH6" s="116"/>
-      <c r="BI6" s="117" t="s">
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="135"/>
+      <c r="BG6" s="135"/>
+      <c r="BH6" s="135"/>
+      <c r="BI6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="117"/>
-      <c r="BK6" s="117"/>
-      <c r="BL6" s="117"/>
-      <c r="BM6" s="117"/>
-      <c r="BN6" s="118"/>
-      <c r="BO6" s="112"/>
+      <c r="BJ6" s="140"/>
+      <c r="BK6" s="140"/>
+      <c r="BL6" s="140"/>
+      <c r="BM6" s="140"/>
+      <c r="BN6" s="133"/>
+      <c r="BO6" s="134"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="90"/>
@@ -30756,12 +30754,12 @@
     </row>
     <row r="8" spans="1:1026" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
-      <c r="B8" s="119"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="77"/>
       <c r="G8" s="78"/>
       <c r="H8" s="91"/>
@@ -31785,17 +31783,17 @@
       <c r="AML8" s="23"/>
     </row>
     <row r="9" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="124" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="81"/>
       <c r="G9" s="82"/>
-      <c r="H9" s="141"/>
+      <c r="H9" s="109"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="19"/>
@@ -32816,12 +32814,12 @@
       <c r="AML9" s="21"/>
     </row>
     <row r="10" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
@@ -32829,7 +32827,7 @@
       <c r="J10" s="78"/>
       <c r="K10" s="29"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="142"/>
+      <c r="M10" s="110"/>
       <c r="N10" s="21"/>
       <c r="O10" s="30"/>
       <c r="P10" s="29"/>
@@ -33845,12 +33843,12 @@
       <c r="AML10" s="21"/>
     </row>
     <row r="11" spans="1:1026" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="122"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="77"/>
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
@@ -34874,12 +34872,12 @@
       <c r="AML11" s="21"/>
     </row>
     <row r="12" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="122"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="126"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="132"/>
       <c r="F12" s="84"/>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -34944,14 +34942,14 @@
       <c r="BO12" s="31"/>
     </row>
     <row r="13" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="124" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="121"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="86"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
@@ -35016,12 +35014,12 @@
       <c r="BO13" s="20"/>
     </row>
     <row r="14" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="122"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="77"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
@@ -35086,12 +35084,12 @@
       <c r="BO14" s="31"/>
     </row>
     <row r="15" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="122"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
@@ -35156,12 +35154,12 @@
       <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:1026" ht="30" customHeight="1" thickBot="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="121"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="88"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -35226,12 +35224,12 @@
       <c r="BO16" s="31"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B17" s="122"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="89"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -35296,12 +35294,12 @@
       <c r="BO17" s="31"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B18" s="122"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="89"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -35366,12 +35364,12 @@
       <c r="BO18" s="31"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="121"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="26"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -35442,8 +35440,8 @@
       <c r="C20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -35512,8 +35510,8 @@
       <c r="C21" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="129"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="29"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -35582,8 +35580,8 @@
       <c r="C22" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="129"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="29"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -35652,8 +35650,8 @@
       <c r="C23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="129"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="29"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -35722,8 +35720,8 @@
       <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="129"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="29"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -35788,14 +35786,14 @@
       <c r="BO24" s="31"/>
     </row>
     <row r="25" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="113" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="135"/>
-      <c r="E25" s="128"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -35860,12 +35858,12 @@
       <c r="BO25" s="20"/>
     </row>
     <row r="26" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="133"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="129"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="29"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -35930,12 +35928,12 @@
       <c r="BO26" s="31"/>
     </row>
     <row r="27" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B27" s="133"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="129"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="29"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -36000,12 +35998,12 @@
       <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="133"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="129"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="29"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -36070,12 +36068,12 @@
       <c r="BO28" s="31"/>
     </row>
     <row r="29" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="134"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="26"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -36212,10 +36210,10 @@
       <c r="BO30" s="42"/>
     </row>
     <row r="31" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="137"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="137"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="120"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -36280,10 +36278,10 @@
       <c r="BO31" s="31"/>
     </row>
     <row r="32" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="138"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="138"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="29"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -36348,10 +36346,10 @@
       <c r="BO32" s="31"/>
     </row>
     <row r="33" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="138"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="138"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="29"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -36416,10 +36414,10 @@
       <c r="BO33" s="31"/>
     </row>
     <row r="34" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="138"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="138"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="121"/>
       <c r="F34" s="29"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -36484,10 +36482,10 @@
       <c r="BO34" s="31"/>
     </row>
     <row r="35" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="138"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="138"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="121"/>
       <c r="F35" s="29"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -36552,10 +36550,10 @@
       <c r="BO35" s="31"/>
     </row>
     <row r="36" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B36" s="138"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="138"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="121"/>
       <c r="F36" s="29"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -36620,10 +36618,10 @@
       <c r="BO36" s="31"/>
     </row>
     <row r="37" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B37" s="138"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="138"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="121"/>
       <c r="F37" s="29"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -36688,10 +36686,10 @@
       <c r="BO37" s="31"/>
     </row>
     <row r="38" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="138"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="138"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="121"/>
       <c r="F38" s="29"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -36756,10 +36754,10 @@
       <c r="BO38" s="31"/>
     </row>
     <row r="39" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="138"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="138"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="29"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -36824,10 +36822,10 @@
       <c r="BO39" s="31"/>
     </row>
     <row r="40" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B40" s="138"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="138"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="29"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -36892,10 +36890,10 @@
       <c r="BO40" s="31"/>
     </row>
     <row r="41" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B41" s="138"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="138"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="121"/>
       <c r="F41" s="29"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -36960,10 +36958,10 @@
       <c r="BO41" s="31"/>
     </row>
     <row r="42" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="138"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="138"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="121"/>
       <c r="F42" s="29"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -37028,10 +37026,10 @@
       <c r="BO42" s="31"/>
     </row>
     <row r="43" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="138"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="138"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="121"/>
       <c r="F43" s="29"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -37096,10 +37094,10 @@
       <c r="BO43" s="31"/>
     </row>
     <row r="44" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="138"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="138"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="121"/>
       <c r="F44" s="29"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -37164,10 +37162,10 @@
       <c r="BO44" s="31"/>
     </row>
     <row r="45" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="138"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="138"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="29"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -37232,10 +37230,10 @@
       <c r="BO45" s="31"/>
     </row>
     <row r="46" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="138"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="138"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="29"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -37300,10 +37298,10 @@
       <c r="BO46" s="31"/>
     </row>
     <row r="47" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="138"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="138"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="29"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -37368,10 +37366,10 @@
       <c r="BO47" s="31"/>
     </row>
     <row r="48" spans="2:67" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="138"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="138"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="29"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -37436,10 +37434,10 @@
       <c r="BO48" s="31"/>
     </row>
     <row r="49" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="138"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="138"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="29"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -37504,10 +37502,10 @@
       <c r="BO49" s="31"/>
     </row>
     <row r="50" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="138"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="138"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="121"/>
       <c r="F50" s="29"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -37572,10 +37570,10 @@
       <c r="BO50" s="31"/>
     </row>
     <row r="51" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="138"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="138"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="121"/>
       <c r="F51" s="29"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -37640,10 +37638,10 @@
       <c r="BO51" s="31"/>
     </row>
     <row r="52" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="138"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="138"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="121"/>
       <c r="F52" s="29"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -37708,10 +37706,10 @@
       <c r="BO52" s="31"/>
     </row>
     <row r="53" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="138"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="138"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="121"/>
       <c r="F53" s="29"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -37776,10 +37774,10 @@
       <c r="BO53" s="31"/>
     </row>
     <row r="54" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="138"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="138"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="121"/>
       <c r="F54" s="29"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -37844,10 +37842,10 @@
       <c r="BO54" s="31"/>
     </row>
     <row r="55" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B55" s="138"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="138"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="121"/>
       <c r="F55" s="29"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -37912,10 +37910,10 @@
       <c r="BO55" s="31"/>
     </row>
     <row r="56" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="138"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="138"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="121"/>
       <c r="F56" s="29"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -37980,10 +37978,10 @@
       <c r="BO56" s="31"/>
     </row>
     <row r="57" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="138"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="138"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="121"/>
       <c r="F57" s="29"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -38043,10 +38041,10 @@
       <c r="BP57" s="21"/>
     </row>
     <row r="58" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B58" s="139"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="139"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="122"/>
       <c r="F58" s="26"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
@@ -38111,7 +38109,7 @@
       <c r="BO58" s="27"/>
     </row>
     <row r="59" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="111" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="53" t="s">
@@ -38183,7 +38181,7 @@
       <c r="BO59" s="31"/>
     </row>
     <row r="60" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B60" s="130"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
@@ -38253,7 +38251,7 @@
       <c r="BO60" s="27"/>
     </row>
     <row r="61" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B61" s="131" t="s">
+      <c r="B61" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="53" t="s">
@@ -38325,7 +38323,7 @@
       <c r="BO61" s="31"/>
     </row>
     <row r="62" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B62" s="131"/>
+      <c r="B62" s="112"/>
       <c r="C62" s="56"/>
       <c r="D62" s="51"/>
       <c r="E62" s="50"/>
@@ -38393,7 +38391,7 @@
       <c r="BO62" s="31"/>
     </row>
     <row r="63" spans="2:68" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="131"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="56"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50"/>
@@ -38602,27 +38600,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B31:B58"/>
-    <mergeCell ref="C31:C58"/>
-    <mergeCell ref="D31:D58"/>
-    <mergeCell ref="E31:E58"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:BM5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="BD6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="F6:J6"/>
@@ -38633,16 +38620,27 @@
     <mergeCell ref="AE6:AI6"/>
     <mergeCell ref="AJ6:AN6"/>
     <mergeCell ref="AO6:AS6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:BM5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="BD6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B31:B58"/>
+    <mergeCell ref="C31:C58"/>
+    <mergeCell ref="D31:D58"/>
+    <mergeCell ref="E31:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38653,7 +38651,7 @@
   <dimension ref="A1:AML65"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -38674,13 +38672,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="43.5">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="2" spans="1:1026" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:1026" ht="17.25" thickBot="1">
@@ -38846,84 +38844,84 @@
       </c>
     </row>
     <row r="5" spans="1:1026" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="115"/>
-      <c r="AJ5" s="115"/>
-      <c r="AK5" s="115"/>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
-      <c r="AX5" s="115"/>
-      <c r="AY5" s="115"/>
-      <c r="AZ5" s="115"/>
-      <c r="BA5" s="115"/>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="115"/>
-      <c r="BD5" s="115"/>
-      <c r="BE5" s="115"/>
-      <c r="BF5" s="115"/>
-      <c r="BG5" s="115"/>
-      <c r="BH5" s="115"/>
-      <c r="BI5" s="115"/>
-      <c r="BJ5" s="115"/>
-      <c r="BK5" s="115"/>
-      <c r="BL5" s="115"/>
-      <c r="BM5" s="115"/>
-      <c r="BN5" s="118" t="s">
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="139"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="139"/>
+      <c r="AQ5" s="139"/>
+      <c r="AR5" s="139"/>
+      <c r="AS5" s="139"/>
+      <c r="AT5" s="139"/>
+      <c r="AU5" s="139"/>
+      <c r="AV5" s="139"/>
+      <c r="AW5" s="139"/>
+      <c r="AX5" s="139"/>
+      <c r="AY5" s="139"/>
+      <c r="AZ5" s="139"/>
+      <c r="BA5" s="139"/>
+      <c r="BB5" s="139"/>
+      <c r="BC5" s="139"/>
+      <c r="BD5" s="139"/>
+      <c r="BE5" s="139"/>
+      <c r="BF5" s="139"/>
+      <c r="BG5" s="139"/>
+      <c r="BH5" s="139"/>
+      <c r="BI5" s="139"/>
+      <c r="BJ5" s="139"/>
+      <c r="BK5" s="139"/>
+      <c r="BL5" s="139"/>
+      <c r="BM5" s="139"/>
+      <c r="BN5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="BO5" s="112" t="s">
+      <c r="BO5" s="134" t="s">
         <v>10</v>
       </c>
       <c r="BR5" s="94"/>
@@ -38932,107 +38930,107 @@
       <c r="BU5" s="94"/>
     </row>
     <row r="6" spans="1:1026" ht="17.25" thickBot="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="116" t="s">
+      <c r="B6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116" t="s">
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116" t="s">
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116" t="s">
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116" t="s">
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116" t="s">
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116" t="s">
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="116"/>
-      <c r="AO6" s="116" t="s">
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="116"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="116"/>
-      <c r="AS6" s="116"/>
-      <c r="AT6" s="116" t="s">
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AU6" s="116"/>
-      <c r="AV6" s="116"/>
-      <c r="AW6" s="116"/>
-      <c r="AX6" s="116"/>
-      <c r="AY6" s="116" t="s">
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="116"/>
-      <c r="BA6" s="116"/>
-      <c r="BB6" s="116"/>
-      <c r="BC6" s="116"/>
-      <c r="BD6" s="116" t="s">
+      <c r="AZ6" s="135"/>
+      <c r="BA6" s="135"/>
+      <c r="BB6" s="135"/>
+      <c r="BC6" s="135"/>
+      <c r="BD6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="BE6" s="116"/>
-      <c r="BF6" s="116"/>
-      <c r="BG6" s="116"/>
-      <c r="BH6" s="116"/>
-      <c r="BI6" s="117" t="s">
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="135"/>
+      <c r="BG6" s="135"/>
+      <c r="BH6" s="135"/>
+      <c r="BI6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="117"/>
-      <c r="BK6" s="117"/>
-      <c r="BL6" s="117"/>
-      <c r="BM6" s="117"/>
-      <c r="BN6" s="118"/>
-      <c r="BO6" s="112"/>
+      <c r="BJ6" s="140"/>
+      <c r="BK6" s="140"/>
+      <c r="BL6" s="140"/>
+      <c r="BM6" s="140"/>
+      <c r="BN6" s="133"/>
+      <c r="BO6" s="134"/>
     </row>
     <row r="7" spans="1:1026" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
+      <c r="D7" s="128"/>
+      <c r="E7" 